--- a/data/hotels_by_city/Houston/Houston_shard_74.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_74.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="408">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56764-d1752009-Reviews-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Candlewood-Suites-Houston.h3557698.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1136 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/06/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r567464512-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>56764</t>
+  </si>
+  <si>
+    <t>1752009</t>
+  </si>
+  <si>
+    <t>567464512</t>
+  </si>
+  <si>
+    <t>03/19/2018</t>
+  </si>
+  <si>
+    <t>Very nice and great location</t>
+  </si>
+  <si>
+    <t>Beautiful hotel, clean rooms, friendly staff and great location with lots of restaurants within walking distance. The upstairs bar was too loud and lower bar area wasn't open. We had to go upstairs to get drinks.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r546005056-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>546005056</t>
+  </si>
+  <si>
+    <t>12/08/2017</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t>Great place to stay and very friendly.  I like to search the room for things and found a bag of goldfish that has a sale by date of 09/18/16 behind the dresser drawer.  Can’t bring my self to open it.  My only complaint is the strong bug spray smell.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r538602225-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>538602225</t>
+  </si>
+  <si>
+    <t>11/05/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visting my son </t>
+  </si>
+  <si>
+    <t>I booked this hotel on trip adviser   when I checked  in it wasnt the room I had booked and hotel management were rude and wouldnt do anything to fit it .If you booked this hotel on a booking site you might have  trouble  with this hotel. NOW Let get to other things there is very little food in this hotel  only what you can buy at the front  desk and the prices change daily. They dont clean the room everyday or change the towels  .If you want clean towels you have to take your dirty one down to the front  desk and ask for them Really !!!! .There are other nicer  hotel s in the area and for the price  I wouldnt stay at this one. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded November 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2017</t>
+  </si>
+  <si>
+    <t>I booked this hotel on trip adviser   when I checked  in it wasnt the room I had booked and hotel management were rude and wouldnt do anything to fit it .If you booked this hotel on a booking site you might have  trouble  with this hotel. NOW Let get to other things there is very little food in this hotel  only what you can buy at the front  desk and the prices change daily. They dont clean the room everyday or change the towels  .If you want clean towels you have to take your dirty one down to the front  desk and ask for them Really !!!! .There are other nicer  hotel s in the area and for the price  I wouldnt stay at this one. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r480375669-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>480375669</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Nice Place</t>
+  </si>
+  <si>
+    <t>This is a very nice place to stay. Super friendly staff, and also dog friendly! They have a designated pet area, and provide bags to be used, so please be a good pet owner. I highly recommend. Only problem was the people on the floor above. At 6am they had a kid running back and forth, and jumping around. It was bad enough to call the front desk. They must have tied the kid up because after that, it was more quiet.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r480221329-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>480221329</t>
+  </si>
+  <si>
+    <t>Quiet night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very nice property.  Friendly staff. Beds comfortable. Only issue was that the hall and room had a peculiar odor which may be the cleaning products they use.  Several exits which made it nice for getting the luggage in and out. Staff very friendly. They offer a select of videos. Nice compliment of snacks​for purchase. Good value for the .  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r452499016-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>452499016</t>
+  </si>
+  <si>
+    <t>01/16/2017</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was in town for a seminar. The stay at this hotel was pleasant. The staff was friendly and helpful. The room was very clean with a kitchenette. The bed, pillows, and sheets smelled and felt clean. I will definitely stay again at this hotel if i travel back up to the woodlands. </t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r410735373-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>410735373</t>
+  </si>
+  <si>
+    <t>08/25/2016</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>As an IHG Rewards Member, I've stayed at other Candlewood Suites when I travel because I prefer the kitchenettes in the rooms.  This Candlewood was like the Intercontinental of Candlewoods:  service, staff, amenities--just awesome!</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r400904718-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>400904718</t>
+  </si>
+  <si>
+    <t>08/03/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Was a wonderful stay </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was a great stay but the AC unit couldn't make up its mind to run hot or cold so that was a drag, I need cold to sleep. It was very quiet and was a good place to stay close to the woodlands waterways and convention center. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r384070236-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>384070236</t>
+  </si>
+  <si>
+    <t>06/19/2016</t>
+  </si>
+  <si>
+    <t>Wonderful</t>
+  </si>
+  <si>
+    <t>So this hotel ha the nicest staff I have ever had the pleasure of meeting at a hotel.  The breakfast could have been a little better but over all it was great.  Monday thur Wednesday they had a free Mini bar and sometimes even had food.  They had a conference room and they had a sitting room in the lobby.  The rooms were amazing and very clean.  The pool and the outdoor patio were a great pleasure.  They had a lot of parking.  Need more of theses and lest of Extended Stays!!</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r372216789-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>372216789</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best </t>
+  </si>
+  <si>
+    <t>Absolutely the best stay. The staff was very helpful during my time of need. The room was clean and the grill was hot. The room had a nice layout like a little apartment. I would expect a much higher price for what I received.I would give it more stars if I could !!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r357634143-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>357634143</t>
+  </si>
+  <si>
+    <t>03/22/2016</t>
+  </si>
+  <si>
+    <t>Great People</t>
+  </si>
+  <si>
+    <t>This was my first stay in a Candlewood Suites and I was very impressed with the Staff.  Everyone was friendly and more than willing to help in any manner possible.  I was having a problem with the lobby printer and an employee offered to have me use the staff printer.  The rooms were clean with plenty of amenities.  My standard room had a full refrigerator, stove top, coffee maker and microwave.  The rooms are good sized with good sized bathrooms.  My only complaint was the lack of options for the breakfast.  It's mostly danish type foods (and waffles) and I was looking for something a little healthier with some protein.  Since the rooms are all suites, next time I'll bring some breakfast food with me.  Overall, I would definitely recommend this hotel to friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>This was my first stay in a Candlewood Suites and I was very impressed with the Staff.  Everyone was friendly and more than willing to help in any manner possible.  I was having a problem with the lobby printer and an employee offered to have me use the staff printer.  The rooms were clean with plenty of amenities.  My standard room had a full refrigerator, stove top, coffee maker and microwave.  The rooms are good sized with good sized bathrooms.  My only complaint was the lack of options for the breakfast.  It's mostly danish type foods (and waffles) and I was looking for something a little healthier with some protein.  Since the rooms are all suites, next time I'll bring some breakfast food with me.  Overall, I would definitely recommend this hotel to friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r350822800-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>350822800</t>
+  </si>
+  <si>
+    <t>02/25/2016</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Two stays here have been better than average. The price is reasonable, the rooms are clean, and there's a small kitchen with a full-size fridge, a sink, and a cook top. It's pet-friendly as well, for reduced fee if you join their priority club. Just a hint, I booked through Booking.com and got a better rate than the hotel itself offers.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r324388067-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>324388067</t>
+  </si>
+  <si>
+    <t>11/04/2015</t>
+  </si>
+  <si>
+    <t>Football Trip Hotel</t>
+  </si>
+  <si>
+    <t>After a long drive we stayed at this hotel before a Texas A&amp;M football game. The hotel was very reasonably priced and a reasonable drive from College Station. 
+The hotel itself was very clean and had a new feel to it. The location of the hotel was in a nice area as well. Check-in was quick and easy and we were able to get to our room quickly. The hotel must have overbooked queen bed rooms because we got put in a King-suite (more expensive room). We would have preferred two beds instead of having to use the pullout; but in the hotels defense, we didn't request to be moved after we got to our room. We were tired and were fine with the room we were given.
+The room itself was very nice and very clean. The rooms had digital thermostats which was a nice modern touch you still don't see at a lot of hotels. Televisions in each room were flat screens. 
+The hotel breakfast was a little lack luster. Make your own Texas-shaped waffles or eat on a pastry. There really isn't a breakfast area like you see at a lot of hotels, it is just set up in the lobby next to a few couches.
+We arrived late to the hotel and left early, so we didn't get to take a whole lot of time at the hotel, but our experience was great. I would recommend...After a long drive we stayed at this hotel before a Texas A&amp;M football game. The hotel was very reasonably priced and a reasonable drive from College Station. The hotel itself was very clean and had a new feel to it. The location of the hotel was in a nice area as well. Check-in was quick and easy and we were able to get to our room quickly. The hotel must have overbooked queen bed rooms because we got put in a King-suite (more expensive room). We would have preferred two beds instead of having to use the pullout; but in the hotels defense, we didn't request to be moved after we got to our room. We were tired and were fine with the room we were given.The room itself was very nice and very clean. The rooms had digital thermostats which was a nice modern touch you still don't see at a lot of hotels. Televisions in each room were flat screens. The hotel breakfast was a little lack luster. Make your own Texas-shaped waffles or eat on a pastry. There really isn't a breakfast area like you see at a lot of hotels, it is just set up in the lobby next to a few couches.We arrived late to the hotel and left early, so we didn't get to take a whole lot of time at the hotel, but our experience was great. I would recommend this hotel to others and would likely stay here again if I was in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>After a long drive we stayed at this hotel before a Texas A&amp;M football game. The hotel was very reasonably priced and a reasonable drive from College Station. 
+The hotel itself was very clean and had a new feel to it. The location of the hotel was in a nice area as well. Check-in was quick and easy and we were able to get to our room quickly. The hotel must have overbooked queen bed rooms because we got put in a King-suite (more expensive room). We would have preferred two beds instead of having to use the pullout; but in the hotels defense, we didn't request to be moved after we got to our room. We were tired and were fine with the room we were given.
+The room itself was very nice and very clean. The rooms had digital thermostats which was a nice modern touch you still don't see at a lot of hotels. Televisions in each room were flat screens. 
+The hotel breakfast was a little lack luster. Make your own Texas-shaped waffles or eat on a pastry. There really isn't a breakfast area like you see at a lot of hotels, it is just set up in the lobby next to a few couches.
+We arrived late to the hotel and left early, so we didn't get to take a whole lot of time at the hotel, but our experience was great. I would recommend...After a long drive we stayed at this hotel before a Texas A&amp;M football game. The hotel was very reasonably priced and a reasonable drive from College Station. The hotel itself was very clean and had a new feel to it. The location of the hotel was in a nice area as well. Check-in was quick and easy and we were able to get to our room quickly. The hotel must have overbooked queen bed rooms because we got put in a King-suite (more expensive room). We would have preferred two beds instead of having to use the pullout; but in the hotels defense, we didn't request to be moved after we got to our room. We were tired and were fine with the room we were given.The room itself was very nice and very clean. The rooms had digital thermostats which was a nice modern touch you still don't see at a lot of hotels. Televisions in each room were flat screens. The hotel breakfast was a little lack luster. Make your own Texas-shaped waffles or eat on a pastry. There really isn't a breakfast area like you see at a lot of hotels, it is just set up in the lobby next to a few couches.We arrived late to the hotel and left early, so we didn't get to take a whole lot of time at the hotel, but our experience was great. I would recommend this hotel to others and would likely stay here again if I was in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r309647565-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>309647565</t>
+  </si>
+  <si>
+    <t>09/12/2015</t>
+  </si>
+  <si>
+    <t>Clean and comfortable!</t>
+  </si>
+  <si>
+    <t>The rooms are spacious, clean, set up for extended stay featuring a kitchenette with everything you need.The room features a bathroom with lots of hot water, table that doubles as a desk with plenty of outlets for all your electronics, reclining chair, and HD TV.  The hotel itself has a laundry room, gym, grilling area, and outdoor pool. Breakfast is very lite fare consisting of juice, breakfast breads, make your own waffles, and coffee. The staff was wonderful.   My advice though, is do not use your GPS.  It sent us almost all the way to Houston.  I-45 has a frontage road that you need to access instead of the tol road..MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>The rooms are spacious, clean, set up for extended stay featuring a kitchenette with everything you need.The room features a bathroom with lots of hot water, table that doubles as a desk with plenty of outlets for all your electronics, reclining chair, and HD TV.  The hotel itself has a laundry room, gym, grilling area, and outdoor pool. Breakfast is very lite fare consisting of juice, breakfast breads, make your own waffles, and coffee. The staff was wonderful.   My advice though, is do not use your GPS.  It sent us almost all the way to Houston.  I-45 has a frontage road that you need to access instead of the tol road..More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r300723161-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>300723161</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>Home away from home!</t>
+  </si>
+  <si>
+    <t>I stayed here while working.  It was absolutely fabulous.  All the staff was helpful and so down to earth especially the front desk crew.  The room was so nice, the housekeeping staff is top notch they kept my room tidy and there were very patient.  They really now how to celebrate their customers, with a evening social.  Even when it came down to having business papers sent out I could count on having the staff assist me with this.  Any time I am back in the Houston Area, I will be coming back.  All I want to stay at is a Candlewood Suites now.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r270639782-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>270639782</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>Outstanding Candlewood Suites</t>
+  </si>
+  <si>
+    <t>I travel, a lot, and I was very impressed with this Candlewood Suites.  The hotel's staff was exceptionally nice.  The hotel room and the hotel's grounds were immaculate, fresh, and nicely furnished.  Everything about my stay was wonderful and I will definitely be using this hotel again when I come back to The Woodlands.  It truly was a great experience.  One last thing for those that have not been to this hotel: it is set back off the main road and surrounded by trees.  It gives you a sense of privacy, yet you are still in an excellent location with quick access to everything.  Two thumbs up!</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r256848997-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>256848997</t>
+  </si>
+  <si>
+    <t>02/27/2015</t>
+  </si>
+  <si>
+    <t>Always good for a stay</t>
+  </si>
+  <si>
+    <t>Good king-sized suites, comfortable beds, nice staff. Still close to the I45 (and the Woodlands mall/businesscenter), you don't hear the traffic in the rooms. (4th visit, still convinced it to be a good choice)</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r255052468-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>255052468</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Fabulous Property with Comfortable Rooms and Great Service</t>
+  </si>
+  <si>
+    <t>We were highly impressed with this hotel, which is in an excellent location with close proximity to everything The Woodlands has to offer. The room was comfortably appointed with a kitchenette that included dishes, glassware, coffee, microwave and full size frig in the room. The staff was very friendly and pleasant and eager to address our requests for additional towels and coffee, etc.I called the hotel to book directly, so there were no issues with my reservation and, though guaranteed, my card was not charged until we arrived at the hotel around 10:00 P.M.I travel with 2 Maltese, so the hotel graciously accepted them and placed us in a room with easy access to a first floor exit door for their convenience and mine! Could not ask for a more pleasant or positive experience! I would highly recommend this hotel to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>We were highly impressed with this hotel, which is in an excellent location with close proximity to everything The Woodlands has to offer. The room was comfortably appointed with a kitchenette that included dishes, glassware, coffee, microwave and full size frig in the room. The staff was very friendly and pleasant and eager to address our requests for additional towels and coffee, etc.I called the hotel to book directly, so there were no issues with my reservation and, though guaranteed, my card was not charged until we arrived at the hotel around 10:00 P.M.I travel with 2 Maltese, so the hotel graciously accepted them and placed us in a room with easy access to a first floor exit door for their convenience and mine! Could not ask for a more pleasant or positive experience! I would highly recommend this hotel to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r251707650-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>251707650</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>How about this! Walked in at midnight with confirmation in hand....reservation cancelled!</t>
+  </si>
+  <si>
+    <t>Booked on booking.com which I have used all over the world without any issue. There was no notification from them or hotel that my credit card had expired, so After a long day of travel, i walked in with my confirmation number and receipt in hand. I was told my credit card had expired so they cancelled my reservation. No notice. Candlewood suites blamed booking.com and booking.com blamed the hotel. The hotel was unapologetic and full, so we were on our own at midnight to find a place.Definitely do not recommend this hotel...they were unsympathetic and rude.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r251456266-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>251456266</t>
+  </si>
+  <si>
+    <t>01/28/2015</t>
+  </si>
+  <si>
+    <t>very quiet and restful stop</t>
+  </si>
+  <si>
+    <t>We stayed for a few nights and first noticed a lot of construction next door front desk staff were friendly and helpful. Our room was clean and we were very comfortable the room was quiet no noise from the construction. We will be back. Sometimes you want to be in the midst of the action,but sometimes you just want to relax and enjoy the peace and quiet. There was a issue with our room not being ready when arrived but that was quickly solved and we got a different room.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r240538426-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>240538426</t>
+  </si>
+  <si>
+    <t>11/19/2014</t>
+  </si>
+  <si>
+    <t>Hidden off I-45 but worth the drive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is hidden off of I-45 on the west side. It is a bit hard to find but is well worth the effort. The room I had was spacious, clean, and comfortable. There was a full sized refrigerator and stove. The shower was great with plenty of pressure and I loved their fluffy towels. The fitness area was great with multiple machines. </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r218261250-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>218261250</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Comfy Candlewood Suites</t>
+  </si>
+  <si>
+    <t>This is the first Candlewood Suites Hotel that I was amazed when I walked into the modern hotel lobby. The hotel is nestled near a hospital and about 3 miles away from the bustling Woodlands Mall area.  I was here for an education convention at the Woodlands Waterway Convention Center.  My room was great and comfortable considering that I booked it last minute.  The young man greeted me respectfully and acknowledged my Platinum member status. My bed was totally awesome and so damn comfortable that I thought about extending to another night.  The area is great for some awesome restaurants like Chuys, Chipotle and bars  if you're into that.  Candlewood, thank you for the stay and for honoring the affordable state rate.  I'm considering coming back from other conventions.  Thanks again.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>This is the first Candlewood Suites Hotel that I was amazed when I walked into the modern hotel lobby. The hotel is nestled near a hospital and about 3 miles away from the bustling Woodlands Mall area.  I was here for an education convention at the Woodlands Waterway Convention Center.  My room was great and comfortable considering that I booked it last minute.  The young man greeted me respectfully and acknowledged my Platinum member status. My bed was totally awesome and so damn comfortable that I thought about extending to another night.  The area is great for some awesome restaurants like Chuys, Chipotle and bars  if you're into that.  Candlewood, thank you for the stay and for honoring the affordable state rate.  I'm considering coming back from other conventions.  Thanks again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r216590739-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>216590739</t>
+  </si>
+  <si>
+    <t>07/21/2014</t>
+  </si>
+  <si>
+    <t>Great experience, dedicated staff</t>
+  </si>
+  <si>
+    <t>We were in the area to adopt our newborn baby daughter, and stayed at this hotel for two weeks while awaiting permission to take her back to our home state. The hotel was perfect for what we needed. The staff, and Richard (the manager) in particular, were great. We let them know that we were staying there with a newborn and they upgraded us to a 1-bedroom suite for a minimal rate increase (we also had to join the rewards program). Overall, it was an amazing deal for what we got.Room service comes once a week but they will give you fresh towels or other supplies any time you want. The pantry in the lobby has a lot of useful items for purchase, as well as free coffee all day. The pool is small but really nice and there's a shaded patio area for hanging outside. What really makes this place is the staff. They are super service-oriented, friendly, and responsive. They made things much easier for us and all cooed sweetly over the baby whenever we'd wander into the lobby to watch soccer. Just really nice people all around. Staying here helped make a potentially crazy, stressful time into a truly sweet nesting period. We will absolutely stay here again when we are back in the area. Would recommend to anyone looking for a quality extended stay type hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>We were in the area to adopt our newborn baby daughter, and stayed at this hotel for two weeks while awaiting permission to take her back to our home state. The hotel was perfect for what we needed. The staff, and Richard (the manager) in particular, were great. We let them know that we were staying there with a newborn and they upgraded us to a 1-bedroom suite for a minimal rate increase (we also had to join the rewards program). Overall, it was an amazing deal for what we got.Room service comes once a week but they will give you fresh towels or other supplies any time you want. The pantry in the lobby has a lot of useful items for purchase, as well as free coffee all day. The pool is small but really nice and there's a shaded patio area for hanging outside. What really makes this place is the staff. They are super service-oriented, friendly, and responsive. They made things much easier for us and all cooed sweetly over the baby whenever we'd wander into the lobby to watch soccer. Just really nice people all around. Staying here helped make a potentially crazy, stressful time into a truly sweet nesting period. We will absolutely stay here again when we are back in the area. Would recommend to anyone looking for a quality extended stay type hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r212151259-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>212151259</t>
+  </si>
+  <si>
+    <t>06/26/2014</t>
+  </si>
+  <si>
+    <t>Staff ignored problem.</t>
+  </si>
+  <si>
+    <t>When I arrived, the kitchen floor was sticky. I called the front desk and they said they would take care of it. They didn't. The next morning, I went to the front desk and mentioned that the floor was sticky and there was a broken zipper on the floor in the bedroom that I stepped on in my bare feet, making me feel like the room wasn't vacuumed. They comped me $20 and said they would take care of it. They didn't. The following day, my wife called them about the floor. They said they'd take care of it. They didn't. When I checked out, I mentioned the problem to the manager. He didn't apologize, but asked if he could do anything for me. This is an $80 hotel. I paid almost $200. I think clean rooms are the most important thing. Fixing problems are #2. Here, the staff did neither. I recommend you find somewhere else to stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded July 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 12, 2014</t>
+  </si>
+  <si>
+    <t>When I arrived, the kitchen floor was sticky. I called the front desk and they said they would take care of it. They didn't. The next morning, I went to the front desk and mentioned that the floor was sticky and there was a broken zipper on the floor in the bedroom that I stepped on in my bare feet, making me feel like the room wasn't vacuumed. They comped me $20 and said they would take care of it. They didn't. The following day, my wife called them about the floor. They said they'd take care of it. They didn't. When I checked out, I mentioned the problem to the manager. He didn't apologize, but asked if he could do anything for me. This is an $80 hotel. I paid almost $200. I think clean rooms are the most important thing. Fixing problems are #2. Here, the staff did neither. I recommend you find somewhere else to stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r205394062-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>205394062</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>Overall, Good Hotel For The Woodlands Area</t>
+  </si>
+  <si>
+    <t>My husband and I normally stay at the Woodlands Country Club, but we decided to bring our pets with us so we stayed at Candlewood Suites. It was very clean and comfortable. The shower was a little off and didn't work the best. Overall, I would stay here again if we decide to bring our dogs with us to visit family.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded May 30, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2014</t>
+  </si>
+  <si>
+    <t>My husband and I normally stay at the Woodlands Country Club, but we decided to bring our pets with us so we stayed at Candlewood Suites. It was very clean and comfortable. The shower was a little off and didn't work the best. Overall, I would stay here again if we decide to bring our dogs with us to visit family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r203518848-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>203518848</t>
+  </si>
+  <si>
+    <t>04/30/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Very good hotel and location. </t>
+  </si>
+  <si>
+    <t>Booked a block of rooms last week at this location for my crew.  All rooms were very clean and stocked. Desk staff very helpful and polite. Grounds very nice.  Hotel sets back from highway a good bit. Helps reduce the highway noise.  Close to shops and restaurants.  Planning to stay here again soon. MoreShow less</t>
+  </si>
+  <si>
+    <t>RICHARD S, General Manager at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded June 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2014</t>
+  </si>
+  <si>
+    <t>Booked a block of rooms last week at this location for my crew.  All rooms were very clean and stocked. Desk staff very helpful and polite. Grounds very nice.  Hotel sets back from highway a good bit. Helps reduce the highway noise.  Close to shops and restaurants.  Planning to stay here again soon. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r200537164-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>200537164</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Great until we left</t>
+  </si>
+  <si>
+    <t>The Hotel was in a great location.  Staff was friendly and pleasant to deal with.  We were in a hurry checking out as usual.  Thought we had packed everything.  To our surprise when we got home I realized I have forgot to pack my Blood Pressure Cuff.  So I called the next day and told them I had left it there and also one Powerball ticket on top of the Microwave.  I spoke to a very nice young lady named Annie.  I told her I had left it in the room and since Monday was the day for the cleaning lady to come in I really can't believe they couldn't see it on the right side of the television set.  Oh well I was told they would call me back.  Well here comes the next day and I called again and to Annie's surprise someone was supposed to call me to tell me they couldn't find either of the items I left behind.  Well I realize it was my fault I left them there but I have left things at hotels even in the Bahamas and they found them so all can tell you is make sure you don't leave anything behind as this Hotel.  I hope they take care of my $60.00 Blood Pressure cuff.  I can't say anything bad about the Place but because of this I won't ever go back.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>The Hotel was in a great location.  Staff was friendly and pleasant to deal with.  We were in a hurry checking out as usual.  Thought we had packed everything.  To our surprise when we got home I realized I have forgot to pack my Blood Pressure Cuff.  So I called the next day and told them I had left it there and also one Powerball ticket on top of the Microwave.  I spoke to a very nice young lady named Annie.  I told her I had left it in the room and since Monday was the day for the cleaning lady to come in I really can't believe they couldn't see it on the right side of the television set.  Oh well I was told they would call me back.  Well here comes the next day and I called again and to Annie's surprise someone was supposed to call me to tell me they couldn't find either of the items I left behind.  Well I realize it was my fault I left them there but I have left things at hotels even in the Bahamas and they found them so all can tell you is make sure you don't leave anything behind as this Hotel.  I hope they take care of my $60.00 Blood Pressure cuff.  I can't say anything bad about the Place but because of this I won't ever go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r185522565-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>185522565</t>
+  </si>
+  <si>
+    <t>11/22/2013</t>
+  </si>
+  <si>
+    <t>Very nice (although short) stay. Pleasantly surprised!</t>
+  </si>
+  <si>
+    <t>I have to admit that I was a little nervous about my first stay at the Candlewood Suites in The Woodlands, TX.  I have stayed at some very nice Candlewood Suites and some older rundown ones.  This property appears to be new or recently updated and so this was a great stay overall!
+The hotel is located off of I-45, and is slightly difficult to find.  It's not the hotel's fault is just the way the side roads are designed off of I-45 in that they only run one-way.  The hotel is tucked in a quiet street near the hospital and some auto dealerships.  There are tons of restaurants just a short drive away, although none are within walking distance of the hotel.  The lobby is modern and well furnished.  My check-in while swift and efficient was done with the warmth of talking to Siri on my iphone.  My room was a king studio room and it was of a very good size.  There is the typical fridge and mini-stove, but I didn't use any of that for a 1 night stay. Most important to me was that the room was super clean and comfortable, there was a great work desk with plenty of power outlets, and a very comfortable bed.  I particularly liked the strong shower in the morning.  The free wi-fi as fast which is always good when trying to get work 
+done. In the morning my check-out...I have to admit that I was a little nervous about my first stay at the Candlewood Suites in The Woodlands, TX.  I have stayed at some very nice Candlewood Suites and some older rundown ones.  This property appears to be new or recently updated and so this was a great stay overall!The hotel is located off of I-45, and is slightly difficult to find.  It's not the hotel's fault is just the way the side roads are designed off of I-45 in that they only run one-way.  The hotel is tucked in a quiet street near the hospital and some auto dealerships.  There are tons of restaurants just a short drive away, although none are within walking distance of the hotel.  The lobby is modern and well furnished.  My check-in while swift and efficient was done with the warmth of talking to Siri on my iphone.  My room was a king studio room and it was of a very good size.  There is the typical fridge and mini-stove, but I didn't use any of that for a 1 night stay. Most important to me was that the room was super clean and comfortable, there was a great work desk with plenty of power outlets, and a very comfortable bed.  I particularly liked the strong shower in the morning.  The free wi-fi as fast which is always good when trying to get work done. In the morning my check-out was quick as well, and just about as unfriendly, but what can you do.  This hotel chain does not offer free breakfast, but I found a Starbucks nearby, and there are plenty of other places for a quick bite.  While I normally prefer more of a full service hotel, I wanted my IGH Rewards points while staying in The Woodlands and there aren't too many options.  But I would absolutely stay here again the next time in town!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded December 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 9, 2013</t>
+  </si>
+  <si>
+    <t>I have to admit that I was a little nervous about my first stay at the Candlewood Suites in The Woodlands, TX.  I have stayed at some very nice Candlewood Suites and some older rundown ones.  This property appears to be new or recently updated and so this was a great stay overall!
+The hotel is located off of I-45, and is slightly difficult to find.  It's not the hotel's fault is just the way the side roads are designed off of I-45 in that they only run one-way.  The hotel is tucked in a quiet street near the hospital and some auto dealerships.  There are tons of restaurants just a short drive away, although none are within walking distance of the hotel.  The lobby is modern and well furnished.  My check-in while swift and efficient was done with the warmth of talking to Siri on my iphone.  My room was a king studio room and it was of a very good size.  There is the typical fridge and mini-stove, but I didn't use any of that for a 1 night stay. Most important to me was that the room was super clean and comfortable, there was a great work desk with plenty of power outlets, and a very comfortable bed.  I particularly liked the strong shower in the morning.  The free wi-fi as fast which is always good when trying to get work 
+done. In the morning my check-out...I have to admit that I was a little nervous about my first stay at the Candlewood Suites in The Woodlands, TX.  I have stayed at some very nice Candlewood Suites and some older rundown ones.  This property appears to be new or recently updated and so this was a great stay overall!The hotel is located off of I-45, and is slightly difficult to find.  It's not the hotel's fault is just the way the side roads are designed off of I-45 in that they only run one-way.  The hotel is tucked in a quiet street near the hospital and some auto dealerships.  There are tons of restaurants just a short drive away, although none are within walking distance of the hotel.  The lobby is modern and well furnished.  My check-in while swift and efficient was done with the warmth of talking to Siri on my iphone.  My room was a king studio room and it was of a very good size.  There is the typical fridge and mini-stove, but I didn't use any of that for a 1 night stay. Most important to me was that the room was super clean and comfortable, there was a great work desk with plenty of power outlets, and a very comfortable bed.  I particularly liked the strong shower in the morning.  The free wi-fi as fast which is always good when trying to get work done. In the morning my check-out was quick as well, and just about as unfriendly, but what can you do.  This hotel chain does not offer free breakfast, but I found a Starbucks nearby, and there are plenty of other places for a quick bite.  While I normally prefer more of a full service hotel, I wanted my IGH Rewards points while staying in The Woodlands and there aren't too many options.  But I would absolutely stay here again the next time in town!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r182259607-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>182259607</t>
+  </si>
+  <si>
+    <t>10/24/2013</t>
+  </si>
+  <si>
+    <t>Excellent staff but worst stay ever at a hotel</t>
+  </si>
+  <si>
+    <t>First of all, I should start by saying that I am an experienced business traveler, traveling 2 weeks out of the month on a monthly basis. My company paid for the stay. I was surprised to learn that during my stay (Saturday-Thursday), I would only have housekeeping once during that week. When I arrived to my room on the 1st floor (I can't recall the exact room number), it reeked of cigarettes--even though the property is a non-smoking hotel. I asked for another room immediately. The receptionist promptly gave me another room on the 2nd floor. Finally fresh air! 
+However, the thermostat was broken on the wall. I resorted to using the space air conditioner (on the floor by the window, it was very loud). It was covered with small dust balls. In the bathroom, the vanity mirror was out, so I requested the staff to replace it. They replaced it while I was at work. That night, I went out to buy earplugs because I could hear the person in the room above me walking around, it was pretty loud. I've never heard anyone above me  before in any other hotels. The following morning I found the toilet to be clogged, to the point where it could not be used. I asked for the Staff to fix it, and it was working again by the time I returned to my room from work. While watching TV I noticed 4...First of all, I should start by saying that I am an experienced business traveler, traveling 2 weeks out of the month on a monthly basis. My company paid for the stay. I was surprised to learn that during my stay (Saturday-Thursday), I would only have housekeeping once during that week. When I arrived to my room on the 1st floor (I can't recall the exact room number), it reeked of cigarettes--even though the property is a non-smoking hotel. I asked for another room immediately. The receptionist promptly gave me another room on the 2nd floor. Finally fresh air! However, the thermostat was broken on the wall. I resorted to using the space air conditioner (on the floor by the window, it was very loud). It was covered with small dust balls. In the bathroom, the vanity mirror was out, so I requested the staff to replace it. They replaced it while I was at work. That night, I went out to buy earplugs because I could hear the person in the room above me walking around, it was pretty loud. I've never heard anyone above me  before in any other hotels. The following morning I found the toilet to be clogged, to the point where it could not be used. I asked for the Staff to fix it, and it was working again by the time I returned to my room from work. While watching TV I noticed 4 ants on the nightstand and promptly killed them. I don't see 4 ants as a serious issue, but that prompted me to take out the trash daily. It's almost as if I was in my first apartment again instead of a hotel. On the day I checked out, the toilet was clogged again! Lesson learned: I prefer full service hotels with daily housekeeping. The bad: the location, I absolutely loathed it. The hotel is behind a medical center, and located off a one way "feeder" road. It was hard to get out on the main road during peak times. I also executed more U turns here in six days than I have in the last couple of months. Clearly, this hotel is for the "do it yourselfers". When I stay at a hotel, it should be relaxing with little effort required on my part for a comfortable stay. I should not have to worry about plumbing, clean towels, or a clean tub. Here are a few good things about the hotel that I took advantage of; excellent Staff, free laundry (bring your own soap), full kitchen with utensils, pots, pans ,dishes (includes dishwasher) but no stove, very hot water (even early in the morning), easy parking, very comfy pillow top bed, nice leather recliner in room, free HBO, and an okay channel selection.Overall, I would not stay at this hotel again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>418RICHARDS, General Manager at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded November 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2013</t>
+  </si>
+  <si>
+    <t>First of all, I should start by saying that I am an experienced business traveler, traveling 2 weeks out of the month on a monthly basis. My company paid for the stay. I was surprised to learn that during my stay (Saturday-Thursday), I would only have housekeeping once during that week. When I arrived to my room on the 1st floor (I can't recall the exact room number), it reeked of cigarettes--even though the property is a non-smoking hotel. I asked for another room immediately. The receptionist promptly gave me another room on the 2nd floor. Finally fresh air! 
+However, the thermostat was broken on the wall. I resorted to using the space air conditioner (on the floor by the window, it was very loud). It was covered with small dust balls. In the bathroom, the vanity mirror was out, so I requested the staff to replace it. They replaced it while I was at work. That night, I went out to buy earplugs because I could hear the person in the room above me walking around, it was pretty loud. I've never heard anyone above me  before in any other hotels. The following morning I found the toilet to be clogged, to the point where it could not be used. I asked for the Staff to fix it, and it was working again by the time I returned to my room from work. While watching TV I noticed 4...First of all, I should start by saying that I am an experienced business traveler, traveling 2 weeks out of the month on a monthly basis. My company paid for the stay. I was surprised to learn that during my stay (Saturday-Thursday), I would only have housekeeping once during that week. When I arrived to my room on the 1st floor (I can't recall the exact room number), it reeked of cigarettes--even though the property is a non-smoking hotel. I asked for another room immediately. The receptionist promptly gave me another room on the 2nd floor. Finally fresh air! However, the thermostat was broken on the wall. I resorted to using the space air conditioner (on the floor by the window, it was very loud). It was covered with small dust balls. In the bathroom, the vanity mirror was out, so I requested the staff to replace it. They replaced it while I was at work. That night, I went out to buy earplugs because I could hear the person in the room above me walking around, it was pretty loud. I've never heard anyone above me  before in any other hotels. The following morning I found the toilet to be clogged, to the point where it could not be used. I asked for the Staff to fix it, and it was working again by the time I returned to my room from work. While watching TV I noticed 4 ants on the nightstand and promptly killed them. I don't see 4 ants as a serious issue, but that prompted me to take out the trash daily. It's almost as if I was in my first apartment again instead of a hotel. On the day I checked out, the toilet was clogged again! Lesson learned: I prefer full service hotels with daily housekeeping. The bad: the location, I absolutely loathed it. The hotel is behind a medical center, and located off a one way "feeder" road. It was hard to get out on the main road during peak times. I also executed more U turns here in six days than I have in the last couple of months. Clearly, this hotel is for the "do it yourselfers". When I stay at a hotel, it should be relaxing with little effort required on my part for a comfortable stay. I should not have to worry about plumbing, clean towels, or a clean tub. Here are a few good things about the hotel that I took advantage of; excellent Staff, free laundry (bring your own soap), full kitchen with utensils, pots, pans ,dishes (includes dishwasher) but no stove, very hot water (even early in the morning), easy parking, very comfy pillow top bed, nice leather recliner in room, free HBO, and an okay channel selection.Overall, I would not stay at this hotel again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r161326062-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>161326062</t>
+  </si>
+  <si>
+    <t>05/20/2013</t>
+  </si>
+  <si>
+    <t>GREAT EXTENDED STAY</t>
+  </si>
+  <si>
+    <t>This Candlewood is one of the best!!! Very accomodating staff, I have never felt so appreciated during a hotel stay. Looked forward to the Manager's reception in the afternoons; employee remembered what I drank and had it ready before I asked for it. People complaining about housekeeping obviously have not stayed at extened stay hotels; they don't go into your room everyday but will supply you with anything you want...just ask!!</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r153630077-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>153630077</t>
+  </si>
+  <si>
+    <t>03/03/2013</t>
+  </si>
+  <si>
+    <t>Bring your own housekeeper</t>
+  </si>
+  <si>
+    <t>Initial impression: small room, one side of bed is against the wall, cleanThen the next day i walked into an unkept room and was made aware by staff there is no housekeeping on the weekends.  I thought it was a joke! Must be part of the Obama furlough! Will not stay here againMoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded March 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2013</t>
+  </si>
+  <si>
+    <t>Initial impression: small room, one side of bed is against the wall, cleanThen the next day i walked into an unkept room and was made aware by staff there is no housekeeping on the weekends.  I thought it was a joke! Must be part of the Obama furlough! Will not stay here againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r151342282-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>151342282</t>
+  </si>
+  <si>
+    <t>02/03/2013</t>
+  </si>
+  <si>
+    <t>Basic and functional</t>
+  </si>
+  <si>
+    <t>I have stayed here twice now.  Once you have checked in you are pretty well left alone to get on with things and there is usually a side door to get in/out to the car park so I didn't need to revisit reception after checkin.
+There is no kitchens/restaurant on site so you need to make a trip to pick up supplies.  The fridge is nice and big and you are provided with pots/pans, toaster, coffee makes, microwave, electric stove, dishwasher.
+The walls are pretty thin so although I didn't need the aircon on I had it turned on at night to drown out an interruptions from the neighbours either side and above.  There is no noise at all from the I-45.
+On my last trip I was in a ground floor room and the wasn't overly impressed with the bathroom door inside and frame that had been chewed and scratched by a dog.  I realised that these ground floor rooms are 'pet friendly' and although I didn't mind enough to transfer some might not want to use a hotel room which has had dogs living in it previously.
+The gym is basic but functional and usually deserted.  There are free washer/driers which is a nice change.
+I believe Mon-Thu there is some food and beers laid on for guests early evening but I was always working late so missed any socialising.
+There isn't anywhere sidewalks/pavements to use to walk...I have stayed here twice now.  Once you have checked in you are pretty well left alone to get on with things and there is usually a side door to get in/out to the car park so I didn't need to revisit reception after checkin.There is no kitchens/restaurant on site so you need to make a trip to pick up supplies.  The fridge is nice and big and you are provided with pots/pans, toaster, coffee makes, microwave, electric stove, dishwasher.The walls are pretty thin so although I didn't need the aircon on I had it turned on at night to drown out an interruptions from the neighbours either side and above.  There is no noise at all from the I-45.On my last trip I was in a ground floor room and the wasn't overly impressed with the bathroom door inside and frame that had been chewed and scratched by a dog.  I realised that these ground floor rooms are 'pet friendly' and although I didn't mind enough to transfer some might not want to use a hotel room which has had dogs living in it previously.The gym is basic but functional and usually deserted.  There are free washer/driers which is a nice change.I believe Mon-Thu there is some food and beers laid on for guests early evening but I was always working late so missed any socialising.There isn't anywhere sidewalks/pavements to use to walk to any bars or restaurants so if you deserve a beer it is Walmart and back to your room!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I have stayed here twice now.  Once you have checked in you are pretty well left alone to get on with things and there is usually a side door to get in/out to the car park so I didn't need to revisit reception after checkin.
+There is no kitchens/restaurant on site so you need to make a trip to pick up supplies.  The fridge is nice and big and you are provided with pots/pans, toaster, coffee makes, microwave, electric stove, dishwasher.
+The walls are pretty thin so although I didn't need the aircon on I had it turned on at night to drown out an interruptions from the neighbours either side and above.  There is no noise at all from the I-45.
+On my last trip I was in a ground floor room and the wasn't overly impressed with the bathroom door inside and frame that had been chewed and scratched by a dog.  I realised that these ground floor rooms are 'pet friendly' and although I didn't mind enough to transfer some might not want to use a hotel room which has had dogs living in it previously.
+The gym is basic but functional and usually deserted.  There are free washer/driers which is a nice change.
+I believe Mon-Thu there is some food and beers laid on for guests early evening but I was always working late so missed any socialising.
+There isn't anywhere sidewalks/pavements to use to walk...I have stayed here twice now.  Once you have checked in you are pretty well left alone to get on with things and there is usually a side door to get in/out to the car park so I didn't need to revisit reception after checkin.There is no kitchens/restaurant on site so you need to make a trip to pick up supplies.  The fridge is nice and big and you are provided with pots/pans, toaster, coffee makes, microwave, electric stove, dishwasher.The walls are pretty thin so although I didn't need the aircon on I had it turned on at night to drown out an interruptions from the neighbours either side and above.  There is no noise at all from the I-45.On my last trip I was in a ground floor room and the wasn't overly impressed with the bathroom door inside and frame that had been chewed and scratched by a dog.  I realised that these ground floor rooms are 'pet friendly' and although I didn't mind enough to transfer some might not want to use a hotel room which has had dogs living in it previously.The gym is basic but functional and usually deserted.  There are free washer/driers which is a nice change.I believe Mon-Thu there is some food and beers laid on for guests early evening but I was always working late so missed any socialising.There isn't anywhere sidewalks/pavements to use to walk to any bars or restaurants so if you deserve a beer it is Walmart and back to your room!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r148832974-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>148832974</t>
+  </si>
+  <si>
+    <t>01/04/2013</t>
+  </si>
+  <si>
+    <t>Always a pleasure....</t>
+  </si>
+  <si>
+    <t>Stay usually once a month and its always a treat....from arrival, staff, cleanliness, location etc....its top notch. Staff really cares and you can tell that it steems from the top......will stay no place else when in Woodlands!AZ</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r144569628-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>144569628</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Very Good Value</t>
+  </si>
+  <si>
+    <t>For the price of this hotel the bedding, towels, and quality of the room surpasses previous experiences at $100 hotels.  The bed and bedding was what you expect at a typical high dollar room.  This hotel was very clean and new too!  The hotel staff were friendly.  I will stay here again.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r143703574-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>143703574</t>
+  </si>
+  <si>
+    <t>10/25/2012</t>
+  </si>
+  <si>
+    <t>Best value in the area, and with Southern hospitality</t>
+  </si>
+  <si>
+    <t>Had to attend a conference at the Woodlands Marriott Waterways and instead of ~300$ there opted for a third of the room price here. The triple AAA rate was an excellent deal. Booked a 2-night stay online. Then flight got delayed and ended up on a redeye into IAH, arriving at the Candlewood at 8am. The lady at the front desk told me not to worry about it since they were not booked out the previous night, and indeed was only charged for one night stay - very accomodating and understanding. The room was spacious, everything in working order, windows that could be opened to let fresh air in (with screens). Good work desk, solid wifi internet. Kitchen was well equipped, and bathroom very clean. Slept really well in a comfortable king bed. The hotel is located behind the BMW dealership, somewhat hidden from view when driving along the frontage road. However this shields it from the highway noise, and it was really quiet. Yes, would not hesitate to book this one again, and will try to join the managers reception next time. Great place!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Had to attend a conference at the Woodlands Marriott Waterways and instead of ~300$ there opted for a third of the room price here. The triple AAA rate was an excellent deal. Booked a 2-night stay online. Then flight got delayed and ended up on a redeye into IAH, arriving at the Candlewood at 8am. The lady at the front desk told me not to worry about it since they were not booked out the previous night, and indeed was only charged for one night stay - very accomodating and understanding. The room was spacious, everything in working order, windows that could be opened to let fresh air in (with screens). Good work desk, solid wifi internet. Kitchen was well equipped, and bathroom very clean. Slept really well in a comfortable king bed. The hotel is located behind the BMW dealership, somewhat hidden from view when driving along the frontage road. However this shields it from the highway noise, and it was really quiet. Yes, would not hesitate to book this one again, and will try to join the managers reception next time. Great place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r142655933-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>142655933</t>
+  </si>
+  <si>
+    <t>10/12/2012</t>
+  </si>
+  <si>
+    <t>Candlewood Suite-hearts</t>
+  </si>
+  <si>
+    <t>I first stayed at this Candlewood Suites for an extended stay in the summer of 2011 during a government internship. When I first arrived, I was greeted warmly and was given a fantastic room (of my choice). At first the kitchenette seemed to be devoid of silverware, and so when I called the front desk to ask for replacements, the receptionist come up to my room personally with hands full of silverware, apologizing for any inconvenience. It was a couple of days later when I looked in the dish washer that I found all the silverware I thought I was missing. Over the time I spent there I felt like I was part of the hotel family, each of the front desk workers as polite as the next. They each knew my name, asked how I was doing and were even content to chat a while. OOH AND THOSE BEDS! Never had a comfier night's sleep! I even got some items from the Cupboard (small room with munchies and various travel items for sale) free of charge! Even more personal are the Tuesday, Wednesday, and Thursday guest parties. In the lobby on these days, pizza, spaghetti, pasta, salad, cookies, and other foods were put out, along with beer and wine. It was a great way to build camaraderie between the hotel guests and the staff, as well as introduce Shiner Bock to far-from-homers like myself. It was actually tough leaving...I first stayed at this Candlewood Suites for an extended stay in the summer of 2011 during a government internship. When I first arrived, I was greeted warmly and was given a fantastic room (of my choice). At first the kitchenette seemed to be devoid of silverware, and so when I called the front desk to ask for replacements, the receptionist come up to my room personally with hands full of silverware, apologizing for any inconvenience. It was a couple of days later when I looked in the dish washer that I found all the silverware I thought I was missing. Over the time I spent there I felt like I was part of the hotel family, each of the front desk workers as polite as the next. They each knew my name, asked how I was doing and were even content to chat a while. OOH AND THOSE BEDS! Never had a comfier night's sleep! I even got some items from the Cupboard (small room with munchies and various travel items for sale) free of charge! Even more personal are the Tuesday, Wednesday, and Thursday guest parties. In the lobby on these days, pizza, spaghetti, pasta, salad, cookies, and other foods were put out, along with beer and wine. It was a great way to build camaraderie between the hotel guests and the staff, as well as introduce Shiner Bock to far-from-homers like myself. It was actually tough leaving them that year.  When I returned the past summer (2012) they continued my reduced rate and when I walked in greeted me like no time had passed at all. Although it lacks some of the finer decorations of fancy hotels, there is absolutely no charm lacking at The Woodlands Candlewood Suites. The staff, the rooms, the FREE laundry are each an amenity worthy of a 5 star hotel. I highly recommend this extended hotel stay to anyone far from home. Inexpensive, personal, and accommodating in such a setting truly makes you forget you are in such a huge metropolitan area.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>I first stayed at this Candlewood Suites for an extended stay in the summer of 2011 during a government internship. When I first arrived, I was greeted warmly and was given a fantastic room (of my choice). At first the kitchenette seemed to be devoid of silverware, and so when I called the front desk to ask for replacements, the receptionist come up to my room personally with hands full of silverware, apologizing for any inconvenience. It was a couple of days later when I looked in the dish washer that I found all the silverware I thought I was missing. Over the time I spent there I felt like I was part of the hotel family, each of the front desk workers as polite as the next. They each knew my name, asked how I was doing and were even content to chat a while. OOH AND THOSE BEDS! Never had a comfier night's sleep! I even got some items from the Cupboard (small room with munchies and various travel items for sale) free of charge! Even more personal are the Tuesday, Wednesday, and Thursday guest parties. In the lobby on these days, pizza, spaghetti, pasta, salad, cookies, and other foods were put out, along with beer and wine. It was a great way to build camaraderie between the hotel guests and the staff, as well as introduce Shiner Bock to far-from-homers like myself. It was actually tough leaving...I first stayed at this Candlewood Suites for an extended stay in the summer of 2011 during a government internship. When I first arrived, I was greeted warmly and was given a fantastic room (of my choice). At first the kitchenette seemed to be devoid of silverware, and so when I called the front desk to ask for replacements, the receptionist come up to my room personally with hands full of silverware, apologizing for any inconvenience. It was a couple of days later when I looked in the dish washer that I found all the silverware I thought I was missing. Over the time I spent there I felt like I was part of the hotel family, each of the front desk workers as polite as the next. They each knew my name, asked how I was doing and were even content to chat a while. OOH AND THOSE BEDS! Never had a comfier night's sleep! I even got some items from the Cupboard (small room with munchies and various travel items for sale) free of charge! Even more personal are the Tuesday, Wednesday, and Thursday guest parties. In the lobby on these days, pizza, spaghetti, pasta, salad, cookies, and other foods were put out, along with beer and wine. It was a great way to build camaraderie between the hotel guests and the staff, as well as introduce Shiner Bock to far-from-homers like myself. It was actually tough leaving them that year.  When I returned the past summer (2012) they continued my reduced rate and when I walked in greeted me like no time had passed at all. Although it lacks some of the finer decorations of fancy hotels, there is absolutely no charm lacking at The Woodlands Candlewood Suites. The staff, the rooms, the FREE laundry are each an amenity worthy of a 5 star hotel. I highly recommend this extended hotel stay to anyone far from home. Inexpensive, personal, and accommodating in such a setting truly makes you forget you are in such a huge metropolitan area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r138301952-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>138301952</t>
+  </si>
+  <si>
+    <t>08/25/2012</t>
+  </si>
+  <si>
+    <t>Great stay</t>
+  </si>
+  <si>
+    <t>The stay at this hotel was very pleasant. It was a very convenient location to the ST Lukes Hospital. The kitchenette was furnished to the max and very nice. All the staff were very professional and accommodating. I would highly recommend that you stay here if you are looking for a nice stay in the woodlands.  Nichole was very professional.</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r133908186-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>133908186</t>
+  </si>
+  <si>
+    <t>07/09/2012</t>
+  </si>
+  <si>
+    <t>Wonderful!!</t>
+  </si>
+  <si>
+    <t>I can't say enough good things about our stay. We were there 5 days nice room, quite and extremely friendly staff. As our daughter moved to the area we will look forward to staying again.If I have anything negative to say it would be slow cricky sounding elevator. Also the signs directing you to the hotel could be more visible.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r133080994-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>133080994</t>
+  </si>
+  <si>
+    <t>06/29/2012</t>
+  </si>
+  <si>
+    <t>Great stay, very clean and quiet!!!</t>
+  </si>
+  <si>
+    <t>What a beautiful location! Near the hospital with easy access to I45, but very quiet and CLEAN! The Lobby was very inviting and the night staff welcoming! Thank you for your hospitality!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r130379437-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>130379437</t>
+  </si>
+  <si>
+    <t>05/21/2012</t>
+  </si>
+  <si>
+    <t>Poor Value and Service</t>
+  </si>
+  <si>
+    <t>Poor Value/Service: I stayed this past week/weekend at the Candlewood Suites, The Woodlands. When I booked my reservation I was confirmed with my companies corporate rate. When I arrived for check-in I was informed by the lady at the front desk that since there was a special event going on that weekend (Ironman), company rates were not honored. When I questioned the employee's comment, the Manager (Richard S. ?) swooped into the conversation and stated that special events are typically not honored. I have never had this issue in the past at other Intercontinental properties.
+The driver of the poor value comes from what I was charged per night ($209.00) and what I received, (small room, broken dishwasher, thin walls, and loud air conditioning window unit). Honestly I received better value while staying at a hotel in a 3rd world country. I have stayed at Holiday Inn with nicer standard rooms than the "suite" I was assigned. The room was worth $70-80 at most.
+The driver for the poor service is how the manager handled the situation. Instead of making an exception for one customer who travels frequently to the area and who's employer has many employees staying in the area (consultants), he insisted on the higher rate which was not known when I first booked. 
+So why did I stay at the Candlewood and not go to the Hilton property down the street? I called the IC Ambassador Support...Poor Value/Service: I stayed this past week/weekend at the Candlewood Suites, The Woodlands. When I booked my reservation I was confirmed with my companies corporate rate. When I arrived for check-in I was informed by the lady at the front desk that since there was a special event going on that weekend (Ironman), company rates were not honored. When I questioned the employee's comment, the Manager (Richard S. ?) swooped into the conversation and stated that special events are typically not honored. I have never had this issue in the past at other Intercontinental properties.The driver of the poor value comes from what I was charged per night ($209.00) and what I received, (small room, broken dishwasher, thin walls, and loud air conditioning window unit). Honestly I received better value while staying at a hotel in a 3rd world country. I have stayed at Holiday Inn with nicer standard rooms than the "suite" I was assigned. The room was worth $70-80 at most.The driver for the poor service is how the manager handled the situation. Instead of making an exception for one customer who travels frequently to the area and who's employer has many employees staying in the area (consultants), he insisted on the higher rate which was not known when I first booked. So why did I stay at the Candlewood and not go to the Hilton property down the street? I called the IC Ambassador Support line and was informed that the rate would be adjusted during check-out. Ok, no problem. During check-out I informed the lady at the front desk of the company rate not being applied. She checked my profile and notified me that the manager left a note saying not to change the rate. If that is how Candlewood does business, lesson learned. I will ask the 45 other consultants working down there to only go to the Hilton properties. After all, when I called Hilton down the street, they said they would honor my company's rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Melissa_W55667, Director of Sales at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded June 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2012</t>
+  </si>
+  <si>
+    <t>Poor Value/Service: I stayed this past week/weekend at the Candlewood Suites, The Woodlands. When I booked my reservation I was confirmed with my companies corporate rate. When I arrived for check-in I was informed by the lady at the front desk that since there was a special event going on that weekend (Ironman), company rates were not honored. When I questioned the employee's comment, the Manager (Richard S. ?) swooped into the conversation and stated that special events are typically not honored. I have never had this issue in the past at other Intercontinental properties.
+The driver of the poor value comes from what I was charged per night ($209.00) and what I received, (small room, broken dishwasher, thin walls, and loud air conditioning window unit). Honestly I received better value while staying at a hotel in a 3rd world country. I have stayed at Holiday Inn with nicer standard rooms than the "suite" I was assigned. The room was worth $70-80 at most.
+The driver for the poor service is how the manager handled the situation. Instead of making an exception for one customer who travels frequently to the area and who's employer has many employees staying in the area (consultants), he insisted on the higher rate which was not known when I first booked. 
+So why did I stay at the Candlewood and not go to the Hilton property down the street? I called the IC Ambassador Support...Poor Value/Service: I stayed this past week/weekend at the Candlewood Suites, The Woodlands. When I booked my reservation I was confirmed with my companies corporate rate. When I arrived for check-in I was informed by the lady at the front desk that since there was a special event going on that weekend (Ironman), company rates were not honored. When I questioned the employee's comment, the Manager (Richard S. ?) swooped into the conversation and stated that special events are typically not honored. I have never had this issue in the past at other Intercontinental properties.The driver of the poor value comes from what I was charged per night ($209.00) and what I received, (small room, broken dishwasher, thin walls, and loud air conditioning window unit). Honestly I received better value while staying at a hotel in a 3rd world country. I have stayed at Holiday Inn with nicer standard rooms than the "suite" I was assigned. The room was worth $70-80 at most.The driver for the poor service is how the manager handled the situation. Instead of making an exception for one customer who travels frequently to the area and who's employer has many employees staying in the area (consultants), he insisted on the higher rate which was not known when I first booked. So why did I stay at the Candlewood and not go to the Hilton property down the street? I called the IC Ambassador Support line and was informed that the rate would be adjusted during check-out. Ok, no problem. During check-out I informed the lady at the front desk of the company rate not being applied. She checked my profile and notified me that the manager left a note saying not to change the rate. If that is how Candlewood does business, lesson learned. I will ask the 45 other consultants working down there to only go to the Hilton properties. After all, when I called Hilton down the street, they said they would honor my company's rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r123851608-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>123851608</t>
+  </si>
+  <si>
+    <t>01/30/2012</t>
+  </si>
+  <si>
+    <t>Stayed one night - excellent!!</t>
+  </si>
+  <si>
+    <t>I stayed here for one night in Decemeber 2011. The rate was fantastic for a Friday night (I think it was in the $70-80 range) and for an in-suite room. The hotel is situated back about 1/4 mile from I-45 - so the noise level is slightly less than those right on the highway.Overall - great place to stay! We'll be staying here again.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r123203991-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>123203991</t>
+  </si>
+  <si>
+    <t>01/17/2012</t>
+  </si>
+  <si>
+    <t>Wonderful staff, always felt welcome!!</t>
+  </si>
+  <si>
+    <t>I stayed with my partner at the Candlewood Suits the woodlands for over a month. We were made to feel welcome from the moment we arrived untill the day we left. The staff were neither intrusive or not attentive but just relaxed, friendly and happy to help at all times. We had to leave at short notice and I was very sad to leave here. Keep up the excellent work.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r121578485-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>121578485</t>
+  </si>
+  <si>
+    <t>12/09/2011</t>
+  </si>
+  <si>
+    <t>My New Favorite Hotel in The Woodlands!</t>
+  </si>
+  <si>
+    <t>This hotel was new, clean, very nicely decorated, and conveniently located right off the interstate.  Hotel staff was helpful and friendly.  We were in Houston for a sporting event for our daughter and it was delayed due to rain. We requested a late check-out and appreciated being allowed to stay a little later than noon.  The warm hospitality was impressive.  The rooms were quiet as walls are not paper-thin as in some hotel chains.   The only negative was that there was no hotel sign posted at the road.  The road was marked with a street sign, but there was not hotel sign visible and we had to make the loop around the interstate to circle back.  Can't blame the hotel though. It was worth the extra driving once we got there.MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was new, clean, very nicely decorated, and conveniently located right off the interstate.  Hotel staff was helpful and friendly.  We were in Houston for a sporting event for our daughter and it was delayed due to rain. We requested a late check-out and appreciated being allowed to stay a little later than noon.  The warm hospitality was impressive.  The rooms were quiet as walls are not paper-thin as in some hotel chains.   The only negative was that there was no hotel sign posted at the road.  The road was marked with a street sign, but there was not hotel sign visible and we had to make the loop around the interstate to circle back.  Can't blame the hotel though. It was worth the extra driving once we got there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r121302806-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>121302806</t>
+  </si>
+  <si>
+    <t>12/01/2011</t>
+  </si>
+  <si>
+    <t>Very quiet and easy access to most of the Woodlands</t>
+  </si>
+  <si>
+    <t>Good experience, found the room very quiet and clean.  Good access from Hwy 242 or the west side frontage road of I-45.  This is more of a long term residence facility than a conventional hotel, does not have daily maid service but you can get fresh towels by taking your dirty towels to the desk. Full kitchen with full size refrigerator, comfortable bed, overall nice room.  The price was the best I could find in the Woodlands for a suite, about $40 per night less than other 3 star hotels in the area. Only negative, the slowest, creakiest elevator I have ever been on, freaked my wife out, if you have an elevator phobia get a ground floor room.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Good experience, found the room very quiet and clean.  Good access from Hwy 242 or the west side frontage road of I-45.  This is more of a long term residence facility than a conventional hotel, does not have daily maid service but you can get fresh towels by taking your dirty towels to the desk. Full kitchen with full size refrigerator, comfortable bed, overall nice room.  The price was the best I could find in the Woodlands for a suite, about $40 per night less than other 3 star hotels in the area. Only negative, the slowest, creakiest elevator I have ever been on, freaked my wife out, if you have an elevator phobia get a ground floor room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r120460838-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>120460838</t>
+  </si>
+  <si>
+    <t>11/11/2011</t>
+  </si>
+  <si>
+    <t>They did make me feel like a king.</t>
+  </si>
+  <si>
+    <t>I have some "status" level at whatever program their chain is in and the Candlewood was literally the only hotel I stayed in where they gave me a very nice room (they are all nice), and a present.My only complaint is that the road leading up to it looked dark and scary. It was sort of a leap of faith to drive there. Extra signage would help.  But for the price, you definitely get nice service and a clean, quiet comfortable room.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2011</t>
+  </si>
+  <si>
+    <t>artkayak, Director of Sales at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded November 23, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 23, 2011</t>
+  </si>
+  <si>
+    <t>I have some "status" level at whatever program their chain is in and the Candlewood was literally the only hotel I stayed in where they gave me a very nice room (they are all nice), and a present.My only complaint is that the road leading up to it looked dark and scary. It was sort of a leap of faith to drive there. Extra signage would help.  But for the price, you definitely get nice service and a clean, quiet comfortable room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r119338786-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>119338786</t>
+  </si>
+  <si>
+    <t>10/15/2011</t>
+  </si>
+  <si>
+    <t>Trip Advisor Was Right!</t>
+  </si>
+  <si>
+    <t>Stayed here recently because of Trip Advisor reviews. Hotel staff was very friendly, the room was very clean, bed very comfortable, free internet was a plus, and there was a wonderful reception for all of the hotel guests with free beer, wine, pizza, chips and salsa from 5:30 to 7:30. Parking lot was well lighted. The room is functionally arranged and the kithenette a real bonus. Only negative is that they do not offer breakfast, but they do have free coffee and some fruit. Or you can buy some yogurt, chocolate milk, etc. in the lobby for a small price.  Also, a little hard to find, but in a great location close to the large Woodlands Mall, restaurants, and the Woodlands golf courses. Will stay there again, really enjoyed it.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>artkayak, Director of Sales at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded October 17, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 17, 2011</t>
+  </si>
+  <si>
+    <t>Stayed here recently because of Trip Advisor reviews. Hotel staff was very friendly, the room was very clean, bed very comfortable, free internet was a plus, and there was a wonderful reception for all of the hotel guests with free beer, wine, pizza, chips and salsa from 5:30 to 7:30. Parking lot was well lighted. The room is functionally arranged and the kithenette a real bonus. Only negative is that they do not offer breakfast, but they do have free coffee and some fruit. Or you can buy some yogurt, chocolate milk, etc. in the lobby for a small price.  Also, a little hard to find, but in a great location close to the large Woodlands Mall, restaurants, and the Woodlands golf courses. Will stay there again, really enjoyed it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r117277579-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>117277579</t>
+  </si>
+  <si>
+    <t>08/26/2011</t>
+  </si>
+  <si>
+    <t>Such a great hotel!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here, with our service dog, Aug 12-14, 2011. We particularly liked it because it had a full kitchen so we didn't need to eat out. So we packed an ice chest and cooked in our hotel room. The king bed was so compfy. The service and staff were superb. And we got a super deal by booking 14 days in advance. We had a kind studio suite, which is plenty of room for a couple. For more than two, you would probably need to book a bedroom suite. They do allow pets, although there a quite a surcharge for them, unless they are service animals. There are lots of hotels in that area, but after looking at several website with small rooms starting at $169 or $129, our decision was made for us. It was a wonderful stay and we will cotinue to stay at this hotel anytime we need a hotel in that area. Also, they have complimentary washers and dryers for hotel guests. All you need to bring is your dirty laundry and the detergent. We are so happy with our experience at The Candlewood Suites in The Woodlands!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here, with our service dog, Aug 12-14, 2011. We particularly liked it because it had a full kitchen so we didn't need to eat out. So we packed an ice chest and cooked in our hotel room. The king bed was so compfy. The service and staff were superb. And we got a super deal by booking 14 days in advance. We had a kind studio suite, which is plenty of room for a couple. For more than two, you would probably need to book a bedroom suite. They do allow pets, although there a quite a surcharge for them, unless they are service animals. There are lots of hotels in that area, but after looking at several website with small rooms starting at $169 or $129, our decision was made for us. It was a wonderful stay and we will cotinue to stay at this hotel anytime we need a hotel in that area. Also, they have complimentary washers and dryers for hotel guests. All you need to bring is your dirty laundry and the detergent. We are so happy with our experience at The Candlewood Suites in The Woodlands!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r117250959-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>117250959</t>
+  </si>
+  <si>
+    <t>08/25/2011</t>
+  </si>
+  <si>
+    <t>Loved it will stay here again</t>
+  </si>
+  <si>
+    <t>Need to book a room quickly for a wedding. This hotel was very nice, great customer service and clean. Only con would be the location, it is behind an office building and can be hard to locate but still would stay here again!</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r115669918-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>115669918</t>
+  </si>
+  <si>
+    <t>07/22/2011</t>
+  </si>
+  <si>
+    <t>5 star service!!!</t>
+  </si>
+  <si>
+    <t>I can't say enough about the treatment I received while staying at this Candlewood Suites. The management is so welcoming and extremely warm. The hotel is accomadating to all your needs. The rooms are really large, clean and up to date. There is hardwood floors in the kitchen area, granite counters and decorated very up to date. Even if the place wasn't the staff and management are worth the stay here. I was on a 18 day buisness trip and I felt only a little home sick because of this great team. You should be rated a 5 diamond for your outstanding service. Thanks to Richard, Rachel and the team for making me feel so at home!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>artkayak, Director of Sales at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded August 10, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 10, 2011</t>
+  </si>
+  <si>
+    <t>I can't say enough about the treatment I received while staying at this Candlewood Suites. The management is so welcoming and extremely warm. The hotel is accomadating to all your needs. The rooms are really large, clean and up to date. There is hardwood floors in the kitchen area, granite counters and decorated very up to date. Even if the place wasn't the staff and management are worth the stay here. I was on a 18 day buisness trip and I felt only a little home sick because of this great team. You should be rated a 5 diamond for your outstanding service. Thanks to Richard, Rachel and the team for making me feel so at home!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r115023973-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>115023973</t>
+  </si>
+  <si>
+    <t>07/04/2011</t>
+  </si>
+  <si>
+    <t>We absolutely loved our stay at the Candlewood Suites and when we make it back, we'll be staying there again!!!!</t>
+  </si>
+  <si>
+    <t>We had nothing bad to say about our stay at the Candlewood Suites in The Woodlands Texas. Maria, Jim and Trent were collectively some of the best hotel attendants I've ever encountered. Their willingness to help with whatever situation really shows that they enjoy helping people. The room had everything we needed as far as appliances, the pool was superb, free laundry room and workout center along with the hospitality was hands down THE BEST!!! Two thumbs up to the Candlewood Suites in The Woodlands, TX!!!!!!! Love Chuck and Heather.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r109711811-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>109711811</t>
+  </si>
+  <si>
+    <t>05/24/2011</t>
+  </si>
+  <si>
+    <t>Unbeatable Customer Service</t>
+  </si>
+  <si>
+    <t>We had a large high school group that needed a safe, comfortable, and nice place to stay for a local sport event.  The staff was fabulous when booking the rooms.  The hotel rooms were clean, fresh, and very comfortable.  The staff was very friendly and accommodating during our stay and they made the check in/out process very easy.  We'll stay again.It would be a dream come true if they had a self service breakfast area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r84900679-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>84900679</t>
+  </si>
+  <si>
+    <t>10/26/2010</t>
+  </si>
+  <si>
+    <t>Candlewood Suites is the place to stay</t>
+  </si>
+  <si>
+    <t>If you are ever in The Woodlands you have to stay at the Candlewood Suites extended stay Hotel. The hotel was fairly new when I stayed there with my husband and family. The rooms were some of the nicest I have stayed in. My husband and I personally felt very well taken care of. The service was super great. The staff was very professional and helpful. Whether you needed towels in your room or at the pool, an address for a restaurant or  bar they were happy to help and did so very quickly. The decor of the hotel was simple but very nice. The Candlewood Suites that our family stayed at is definately one of the more pleasant hotels we have stayed at. We look forward to taking another trip to the woodlands soon and there is no doubt that we will stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>If you are ever in The Woodlands you have to stay at the Candlewood Suites extended stay Hotel. The hotel was fairly new when I stayed there with my husband and family. The rooms were some of the nicest I have stayed in. My husband and I personally felt very well taken care of. The service was super great. The staff was very professional and helpful. Whether you needed towels in your room or at the pool, an address for a restaurant or  bar they were happy to help and did so very quickly. The decor of the hotel was simple but very nice. The Candlewood Suites that our family stayed at is definately one of the more pleasant hotels we have stayed at. We look forward to taking another trip to the woodlands soon and there is no doubt that we will stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r84844621-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>84844621</t>
+  </si>
+  <si>
+    <t>10/25/2010</t>
+  </si>
+  <si>
+    <t>New and exceptionally clean and well laid out</t>
+  </si>
+  <si>
+    <t>Right now this almost brand new hotel is great.  The staff is very friendly and helpful and the rooms have everything you need for a long term stay.  The internet connection is pretty fast and free.  One thing I really like is that the room service only comes in once a week but that you can exchange towels etc whenever you want.  Some may not agree but I think it is nice to be able to leave things in place and not worry about having to clear things up for the maid service.  The gym is good and has a good variety of equipment.  There is even a pool.  Very nice for this price rangeMoreShow less</t>
+  </si>
+  <si>
+    <t>Right now this almost brand new hotel is great.  The staff is very friendly and helpful and the rooms have everything you need for a long term stay.  The internet connection is pretty fast and free.  One thing I really like is that the room service only comes in once a week but that you can exchange towels etc whenever you want.  Some may not agree but I think it is nice to be able to leave things in place and not worry about having to clear things up for the maid service.  The gym is good and has a good variety of equipment.  There is even a pool.  Very nice for this price rangeMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r84303957-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>84303957</t>
+  </si>
+  <si>
+    <t>10/21/2010</t>
+  </si>
+  <si>
+    <t>Our stay at Candlewood Suites in the Woodlands was fantastic!</t>
+  </si>
+  <si>
+    <t>The feeling of welcome home was the ambiance of this extended stay hotel.  We were greeted in a friendly manner by the front desk staff, and promptly checked in. The General Manager and the Sales Director happened to be close by and introduced themselves, and offered to attend to any extra needs we may have.  They knew we had a large party arriving sporadically over the next day or so and made certain we were all located on the same floor and our rooms were close to one another.  
+I was surprised to see such amenities in an extended stay property.  When pulling in the entrance there was a Gazebo boasting a patio area including a gas grill and later we found very stylish and comfortable furniture.  It was located adjacent to a full size swimming pool.
+In addition to Wi-Fi throughout, the lobby had a business center with a computer and a color printer as well as a mini store with free coffee. There was a large fitness room with ample equipment.  The hotel also offered a laundry room which was free of charge to use. This always comes in handy especially when traveling with extended family and friends, someone always has to find a Laundromat!
+The rooms were very spacious, fully stocked cooking utensils and dinnerware in kitchen, dishwasher, and full size refrigerator with ice maker, coffee pot, a closet with an actual door, and even a clothes...The feeling of welcome home was the ambiance of this extended stay hotel.  We were greeted in a friendly manner by the front desk staff, and promptly checked in. The General Manager and the Sales Director happened to be close by and introduced themselves, and offered to attend to any extra needs we may have.  They knew we had a large party arriving sporadically over the next day or so and made certain we were all located on the same floor and our rooms were close to one another.  I was surprised to see such amenities in an extended stay property.  When pulling in the entrance there was a Gazebo boasting a patio area including a gas grill and later we found very stylish and comfortable furniture.  It was located adjacent to a full size swimming pool.In addition to Wi-Fi throughout, the lobby had a business center with a computer and a color printer as well as a mini store with free coffee. There was a large fitness room with ample equipment.  The hotel also offered a laundry room which was free of charge to use. This always comes in handy especially when traveling with extended family and friends, someone always has to find a Laundromat!The rooms were very spacious, fully stocked cooking utensils and dinnerware in kitchen, dishwasher, and full size refrigerator with ice maker, coffee pot, a closet with an actual door, and even a clothes basket, ironing board and iron.  I had booked a King room and was pleased at the spaciousness as well as the comfortableness of the bed.  The bedding was plush with additional pillows allowing a choice of feather or Polly foam.   There was a flat screen TV, Premium cable channels, and a DVD player.  The bathroom had a nice size tub with plush and plenty of towels.  An oversized recliner in the corner and a full size table with work station added to the efficiency of the room.The location was convenient to everything. There were abundant restaurants within a few exits, the Woodlands mall, and Wal-Mart within minutes.  Although the hotel is not visible from I-45 it has easy access on and off the Interstate.   My whole family totally enjoyed our stay and we have already booked another weekend in November. I would recommend this hotel for long and short stays. If I had to rate it on a scale of 1-5,  I would give it a 5.MoreShow less</t>
+  </si>
+  <si>
+    <t>The feeling of welcome home was the ambiance of this extended stay hotel.  We were greeted in a friendly manner by the front desk staff, and promptly checked in. The General Manager and the Sales Director happened to be close by and introduced themselves, and offered to attend to any extra needs we may have.  They knew we had a large party arriving sporadically over the next day or so and made certain we were all located on the same floor and our rooms were close to one another.  
+I was surprised to see such amenities in an extended stay property.  When pulling in the entrance there was a Gazebo boasting a patio area including a gas grill and later we found very stylish and comfortable furniture.  It was located adjacent to a full size swimming pool.
+In addition to Wi-Fi throughout, the lobby had a business center with a computer and a color printer as well as a mini store with free coffee. There was a large fitness room with ample equipment.  The hotel also offered a laundry room which was free of charge to use. This always comes in handy especially when traveling with extended family and friends, someone always has to find a Laundromat!
+The rooms were very spacious, fully stocked cooking utensils and dinnerware in kitchen, dishwasher, and full size refrigerator with ice maker, coffee pot, a closet with an actual door, and even a clothes...The feeling of welcome home was the ambiance of this extended stay hotel.  We were greeted in a friendly manner by the front desk staff, and promptly checked in. The General Manager and the Sales Director happened to be close by and introduced themselves, and offered to attend to any extra needs we may have.  They knew we had a large party arriving sporadically over the next day or so and made certain we were all located on the same floor and our rooms were close to one another.  I was surprised to see such amenities in an extended stay property.  When pulling in the entrance there was a Gazebo boasting a patio area including a gas grill and later we found very stylish and comfortable furniture.  It was located adjacent to a full size swimming pool.In addition to Wi-Fi throughout, the lobby had a business center with a computer and a color printer as well as a mini store with free coffee. There was a large fitness room with ample equipment.  The hotel also offered a laundry room which was free of charge to use. This always comes in handy especially when traveling with extended family and friends, someone always has to find a Laundromat!The rooms were very spacious, fully stocked cooking utensils and dinnerware in kitchen, dishwasher, and full size refrigerator with ice maker, coffee pot, a closet with an actual door, and even a clothes basket, ironing board and iron.  I had booked a King room and was pleased at the spaciousness as well as the comfortableness of the bed.  The bedding was plush with additional pillows allowing a choice of feather or Polly foam.   There was a flat screen TV, Premium cable channels, and a DVD player.  The bathroom had a nice size tub with plush and plenty of towels.  An oversized recliner in the corner and a full size table with work station added to the efficiency of the room.The location was convenient to everything. There were abundant restaurants within a few exits, the Woodlands mall, and Wal-Mart within minutes.  Although the hotel is not visible from I-45 it has easy access on and off the Interstate.   My whole family totally enjoyed our stay and we have already booked another weekend in November. I would recommend this hotel for long and short stays. If I had to rate it on a scale of 1-5,  I would give it a 5.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1671,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1703,3553 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>59</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>66</v>
+      </c>
+      <c r="X4" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>53</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" t="s">
+        <v>78</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>85</v>
+      </c>
+      <c r="O9" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" t="s">
+        <v>100</v>
+      </c>
+      <c r="L10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>102</v>
+      </c>
+      <c r="O10" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>104</v>
+      </c>
+      <c r="J11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s">
+        <v>107</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>102</v>
+      </c>
+      <c r="O11" t="s">
+        <v>79</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s">
+        <v>112</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>113</v>
+      </c>
+      <c r="O12" t="s">
+        <v>114</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+      <c r="L13" t="s">
+        <v>120</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>121</v>
+      </c>
+      <c r="O13" t="s">
+        <v>59</v>
+      </c>
+      <c r="P13" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="J14" t="s">
+        <v>124</v>
+      </c>
+      <c r="K14" t="s">
+        <v>125</v>
+      </c>
+      <c r="L14" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
+        <v>127</v>
+      </c>
+      <c r="O14" t="s">
+        <v>114</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" t="s">
+        <v>131</v>
+      </c>
+      <c r="K15" t="s">
+        <v>132</v>
+      </c>
+      <c r="L15" t="s">
+        <v>133</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>134</v>
+      </c>
+      <c r="O15" t="s">
+        <v>79</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>137</v>
+      </c>
+      <c r="J16" t="s">
+        <v>138</v>
+      </c>
+      <c r="K16" t="s">
+        <v>139</v>
+      </c>
+      <c r="L16" t="s">
+        <v>140</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+      <c r="O16" t="s">
+        <v>79</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>142</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>143</v>
+      </c>
+      <c r="J17" t="s">
+        <v>144</v>
+      </c>
+      <c r="K17" t="s">
+        <v>145</v>
+      </c>
+      <c r="L17" t="s">
+        <v>146</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" t="s">
+        <v>79</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>159</v>
+      </c>
+      <c r="O19" t="s">
+        <v>59</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>161</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>162</v>
+      </c>
+      <c r="J20" t="s">
+        <v>163</v>
+      </c>
+      <c r="K20" t="s">
+        <v>164</v>
+      </c>
+      <c r="L20" t="s">
+        <v>165</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+      <c r="J21" t="s">
+        <v>168</v>
+      </c>
+      <c r="K21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L21" t="s">
+        <v>170</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>159</v>
+      </c>
+      <c r="O21" t="s">
+        <v>79</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>172</v>
+      </c>
+      <c r="J22" t="s">
+        <v>173</v>
+      </c>
+      <c r="K22" t="s">
+        <v>174</v>
+      </c>
+      <c r="L22" t="s">
+        <v>175</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>176</v>
+      </c>
+      <c r="O22" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>177</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>178</v>
+      </c>
+      <c r="J23" t="s">
+        <v>179</v>
+      </c>
+      <c r="K23" t="s">
+        <v>180</v>
+      </c>
+      <c r="L23" t="s">
+        <v>181</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>182</v>
+      </c>
+      <c r="O23" t="s">
+        <v>79</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>184</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>185</v>
+      </c>
+      <c r="J24" t="s">
+        <v>186</v>
+      </c>
+      <c r="K24" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>189</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>192</v>
+      </c>
+      <c r="J25" t="s">
+        <v>193</v>
+      </c>
+      <c r="K25" t="s">
+        <v>194</v>
+      </c>
+      <c r="L25" t="s">
+        <v>195</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>196</v>
+      </c>
+      <c r="X25" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>200</v>
+      </c>
+      <c r="J26" t="s">
+        <v>201</v>
+      </c>
+      <c r="K26" t="s">
+        <v>202</v>
+      </c>
+      <c r="L26" t="s">
+        <v>203</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>204</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>4</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>4</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>3</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>205</v>
+      </c>
+      <c r="X26" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>208</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>209</v>
+      </c>
+      <c r="J27" t="s">
+        <v>210</v>
+      </c>
+      <c r="K27" t="s">
+        <v>211</v>
+      </c>
+      <c r="L27" t="s">
+        <v>212</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>204</v>
+      </c>
+      <c r="O27" t="s">
+        <v>79</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>213</v>
+      </c>
+      <c r="X27" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>217</v>
+      </c>
+      <c r="J28" t="s">
+        <v>218</v>
+      </c>
+      <c r="K28" t="s">
+        <v>219</v>
+      </c>
+      <c r="L28" t="s">
+        <v>220</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>221</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>213</v>
+      </c>
+      <c r="X28" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>223</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K29" t="s">
+        <v>226</v>
+      </c>
+      <c r="L29" t="s">
+        <v>227</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>228</v>
+      </c>
+      <c r="O29" t="s">
+        <v>79</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>3</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>2</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>229</v>
+      </c>
+      <c r="X29" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>232</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" t="s">
+        <v>234</v>
+      </c>
+      <c r="K30" t="s">
+        <v>235</v>
+      </c>
+      <c r="L30" t="s">
+        <v>236</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>237</v>
+      </c>
+      <c r="O30" t="s">
+        <v>79</v>
+      </c>
+      <c r="P30" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>238</v>
+      </c>
+      <c r="X30" t="s">
+        <v>239</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>241</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>242</v>
+      </c>
+      <c r="J31" t="s">
+        <v>243</v>
+      </c>
+      <c r="K31" t="s">
+        <v>244</v>
+      </c>
+      <c r="L31" t="s">
+        <v>245</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>246</v>
+      </c>
+      <c r="O31" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>5</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>247</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>248</v>
+      </c>
+      <c r="J32" t="s">
+        <v>249</v>
+      </c>
+      <c r="K32" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" t="s">
+        <v>251</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>252</v>
+      </c>
+      <c r="X32" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>255</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>256</v>
+      </c>
+      <c r="J33" t="s">
+        <v>257</v>
+      </c>
+      <c r="K33" t="s">
+        <v>258</v>
+      </c>
+      <c r="L33" t="s">
+        <v>259</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>260</v>
+      </c>
+      <c r="O33" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>3</v>
+      </c>
+      <c r="R33" t="n">
+        <v>4</v>
+      </c>
+      <c r="S33" t="n">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>262</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>263</v>
+      </c>
+      <c r="J34" t="s">
+        <v>264</v>
+      </c>
+      <c r="K34" t="s">
+        <v>265</v>
+      </c>
+      <c r="L34" t="s">
+        <v>266</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>267</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>268</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>269</v>
+      </c>
+      <c r="J35" t="s">
+        <v>270</v>
+      </c>
+      <c r="K35" t="s">
+        <v>271</v>
+      </c>
+      <c r="L35" t="s">
+        <v>272</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s">
+        <v>273</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>274</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>275</v>
+      </c>
+      <c r="J36" t="s">
+        <v>276</v>
+      </c>
+      <c r="K36" t="s">
+        <v>277</v>
+      </c>
+      <c r="L36" t="s">
+        <v>278</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>279</v>
+      </c>
+      <c r="O36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>5</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>281</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>282</v>
+      </c>
+      <c r="J37" t="s">
+        <v>283</v>
+      </c>
+      <c r="K37" t="s">
+        <v>284</v>
+      </c>
+      <c r="L37" t="s">
+        <v>285</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>286</v>
+      </c>
+      <c r="O37" t="s">
+        <v>79</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>5</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>288</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>289</v>
+      </c>
+      <c r="J38" t="s">
+        <v>290</v>
+      </c>
+      <c r="K38" t="s">
+        <v>291</v>
+      </c>
+      <c r="L38" t="s">
+        <v>292</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>293</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>294</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>295</v>
+      </c>
+      <c r="J39" t="s">
+        <v>296</v>
+      </c>
+      <c r="K39" t="s">
+        <v>297</v>
+      </c>
+      <c r="L39" t="s">
+        <v>298</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>299</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>300</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>301</v>
+      </c>
+      <c r="J40" t="s">
+        <v>302</v>
+      </c>
+      <c r="K40" t="s">
+        <v>303</v>
+      </c>
+      <c r="L40" t="s">
+        <v>304</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>305</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>306</v>
+      </c>
+      <c r="J41" t="s">
+        <v>307</v>
+      </c>
+      <c r="K41" t="s">
+        <v>308</v>
+      </c>
+      <c r="L41" t="s">
+        <v>309</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>310</v>
+      </c>
+      <c r="O41" t="s">
+        <v>79</v>
+      </c>
+      <c r="P41" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>311</v>
+      </c>
+      <c r="X41" t="s">
+        <v>312</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>314</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>315</v>
+      </c>
+      <c r="J42" t="s">
+        <v>316</v>
+      </c>
+      <c r="K42" t="s">
+        <v>317</v>
+      </c>
+      <c r="L42" t="s">
+        <v>318</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>319</v>
+      </c>
+      <c r="O42" t="s">
+        <v>79</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>4</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>320</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>321</v>
+      </c>
+      <c r="J43" t="s">
+        <v>322</v>
+      </c>
+      <c r="K43" t="s">
+        <v>323</v>
+      </c>
+      <c r="L43" t="s">
+        <v>324</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>325</v>
+      </c>
+      <c r="O43" t="s">
+        <v>79</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>5</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>326</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>327</v>
+      </c>
+      <c r="J44" t="s">
+        <v>328</v>
+      </c>
+      <c r="K44" t="s">
+        <v>329</v>
+      </c>
+      <c r="L44" t="s">
+        <v>330</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>319</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>332</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>333</v>
+      </c>
+      <c r="J45" t="s">
+        <v>334</v>
+      </c>
+      <c r="K45" t="s">
+        <v>335</v>
+      </c>
+      <c r="L45" t="s">
+        <v>336</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>337</v>
+      </c>
+      <c r="O45" t="s">
+        <v>59</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>339</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>340</v>
+      </c>
+      <c r="J46" t="s">
+        <v>341</v>
+      </c>
+      <c r="K46" t="s">
+        <v>342</v>
+      </c>
+      <c r="L46" t="s">
+        <v>343</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>344</v>
+      </c>
+      <c r="O46" t="s">
+        <v>79</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>345</v>
+      </c>
+      <c r="X46" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>348</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>349</v>
+      </c>
+      <c r="J47" t="s">
+        <v>350</v>
+      </c>
+      <c r="K47" t="s">
+        <v>351</v>
+      </c>
+      <c r="L47" t="s">
+        <v>352</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>353</v>
+      </c>
+      <c r="O47" t="s">
+        <v>59</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>354</v>
+      </c>
+      <c r="X47" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>357</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>358</v>
+      </c>
+      <c r="J48" t="s">
+        <v>359</v>
+      </c>
+      <c r="K48" t="s">
+        <v>360</v>
+      </c>
+      <c r="L48" t="s">
+        <v>361</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>362</v>
+      </c>
+      <c r="O48" t="s">
+        <v>59</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>364</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>365</v>
+      </c>
+      <c r="J49" t="s">
+        <v>366</v>
+      </c>
+      <c r="K49" t="s">
+        <v>367</v>
+      </c>
+      <c r="L49" t="s">
+        <v>368</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>369</v>
+      </c>
+      <c r="O49" t="s">
+        <v>53</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>370</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>371</v>
+      </c>
+      <c r="J50" t="s">
+        <v>372</v>
+      </c>
+      <c r="K50" t="s">
+        <v>373</v>
+      </c>
+      <c r="L50" t="s">
+        <v>374</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>375</v>
+      </c>
+      <c r="O50" t="s">
+        <v>79</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>376</v>
+      </c>
+      <c r="X50" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>379</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>380</v>
+      </c>
+      <c r="J51" t="s">
+        <v>381</v>
+      </c>
+      <c r="K51" t="s">
+        <v>382</v>
+      </c>
+      <c r="L51" t="s">
+        <v>383</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>375</v>
+      </c>
+      <c r="O51" t="s">
+        <v>114</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>384</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>385</v>
+      </c>
+      <c r="J52" t="s">
+        <v>386</v>
+      </c>
+      <c r="K52" t="s">
+        <v>387</v>
+      </c>
+      <c r="L52" t="s">
+        <v>388</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>389</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>390</v>
+      </c>
+      <c r="J53" t="s">
+        <v>391</v>
+      </c>
+      <c r="K53" t="s">
+        <v>392</v>
+      </c>
+      <c r="L53" t="s">
+        <v>393</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>394</v>
+      </c>
+      <c r="O53" t="s">
+        <v>53</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>396</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>397</v>
+      </c>
+      <c r="J54" t="s">
+        <v>398</v>
+      </c>
+      <c r="K54" t="s">
+        <v>399</v>
+      </c>
+      <c r="L54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>394</v>
+      </c>
+      <c r="O54" t="s">
+        <v>79</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>402</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>403</v>
+      </c>
+      <c r="J55" t="s">
+        <v>404</v>
+      </c>
+      <c r="K55" t="s">
+        <v>405</v>
+      </c>
+      <c r="L55" t="s">
+        <v>406</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>394</v>
+      </c>
+      <c r="O55" t="s">
+        <v>53</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_74.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_74.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="639">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,81 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/06/2018</t>
+    <t>09/03/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r610642465-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>56764</t>
+  </si>
+  <si>
+    <t>1752009</t>
+  </si>
+  <si>
+    <t>610642465</t>
+  </si>
+  <si>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>Dissappointed by hotel.</t>
+  </si>
+  <si>
+    <t>No ice in the ice maker, carpet dirty. Obviously the hotel keeps pet deposits but doesn't use them to clean the carpet or repair cabinets chewed by pets. We called and asked hotel about pet deposit. Was told there wasn't one. We also asked if we could check out late. We were tole they could accommodate us no charge till 3pm. Upon check in we were told it was $10 hour. Speaking of check in. When I arrived there was no one to greet us. I rang bell for 5 minutes. Called front desk, phone rang for 10 minutes. Finally a lady came strolling down the hall. No apologies or much in the way of friendly greeting. Swimming pool was dirty, filters clogged-have to assume no one checking chlorine level if filters dirty.MoreShow less</t>
+  </si>
+  <si>
+    <t>No ice in the ice maker, carpet dirty. Obviously the hotel keeps pet deposits but doesn't use them to clean the carpet or repair cabinets chewed by pets. We called and asked hotel about pet deposit. Was told there wasn't one. We also asked if we could check out late. We were tole they could accommodate us no charge till 3pm. Upon check in we were told it was $10 hour. Speaking of check in. When I arrived there was no one to greet us. I rang bell for 5 minutes. Called front desk, phone rang for 10 minutes. Finally a lady came strolling down the hall. No apologies or much in the way of friendly greeting. Swimming pool was dirty, filters clogged-have to assume no one checking chlorine level if filters dirty.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r589361133-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>589361133</t>
+  </si>
+  <si>
+    <t>06/20/2018</t>
+  </si>
+  <si>
+    <t>Great Value!</t>
+  </si>
+  <si>
+    <t>This hotel is a nice, well kept hotel with kitchens!  There are so many great restaurants nearby but if you feel like cooking your own meals, you have a real fridge (with an ice-maker), a full-sized microwave, a two-burner cooktop, a kitchen sink, and even a dishwasher!  All of the staff are friendly and helpful too.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r577677044-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>577677044</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Ironman Texas</t>
+  </si>
+  <si>
+    <t>Spacious suite, kitchen with hot plate, microwave, fridge, dishwasher and lots of cupboard storage... Hotel is across from hospital in an industrial area but shopping and dining options are available around a mile or so down the road including Walmart...Separate bedroom with king size bed and pull out couch in living room...Clean, staff were friendly and helpful...Snack bar with coffee available 24/7LaundryImpressive gym for a hotelPoolAnd outdoor BBQ areaSite is 3 miles from race site in the Center of Woodlands although easy access to highwayCar is pretty much required to shuffle to and from race site from hotelAmple Room to store/ assemble bike in suite2 reputable bike shops are located near this hotel, Bike Lane and Bike Land... Across the highway...One almost directly across from hotel although requires a U turn and 5k Drive to go north bound....MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Spacious suite, kitchen with hot plate, microwave, fridge, dishwasher and lots of cupboard storage... Hotel is across from hospital in an industrial area but shopping and dining options are available around a mile or so down the road including Walmart...Separate bedroom with king size bed and pull out couch in living room...Clean, staff were friendly and helpful...Snack bar with coffee available 24/7LaundryImpressive gym for a hotelPoolAnd outdoor BBQ areaSite is 3 miles from race site in the Center of Woodlands although easy access to highwayCar is pretty much required to shuffle to and from race site from hotelAmple Room to store/ assemble bike in suite2 reputable bike shops are located near this hotel, Bike Lane and Bike Land... Across the highway...One almost directly across from hotel although requires a U turn and 5k Drive to go north bound....More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r567464512-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
-    <t>56764</t>
-  </si>
-  <si>
-    <t>1752009</t>
-  </si>
-  <si>
     <t>567464512</t>
   </si>
   <si>
@@ -195,9 +258,6 @@
     <t>Great place to stay and very friendly.  I like to search the room for things and found a bag of goldfish that has a sale by date of 09/18/16 behind the dresser drawer.  Can’t bring my self to open it.  My only complaint is the strong bug spray smell.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r538602225-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -225,6 +285,42 @@
     <t>I booked this hotel on trip adviser   when I checked  in it wasnt the room I had booked and hotel management were rude and wouldnt do anything to fit it .If you booked this hotel on a booking site you might have  trouble  with this hotel. NOW Let get to other things there is very little food in this hotel  only what you can buy at the front  desk and the prices change daily. They dont clean the room everyday or change the towels  .If you want clean towels you have to take your dirty one down to the front  desk and ask for them Really !!!! .There are other nicer  hotel s in the area and for the price  I wouldnt stay at this one. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r518097496-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>518097496</t>
+  </si>
+  <si>
+    <t>08/27/2017</t>
+  </si>
+  <si>
+    <t>Family time</t>
+  </si>
+  <si>
+    <t>The ladies who checked us in were super sweet. The rooms were beautiful. Felt very secure leaving our vehicle on the property. Everything was clean, neat, and in good working order. We will visit again!</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r506543258-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>506543258</t>
+  </si>
+  <si>
+    <t>07/28/2017</t>
+  </si>
+  <si>
+    <t>Clean and perfect for us</t>
+  </si>
+  <si>
+    <t>While it is difficult to find the entrance we loved staying at this hotel. We were in the Woodlands for surgery and needed a good place to stay.  This fit the bill. They do not have a free breakfast but the kitchenette is stocked for coffee. Our beds were thick and the sheets and duvet were luxurious. There was also a recliner which helped after surgery.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r480375669-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -255,9 +351,6 @@
     <t xml:space="preserve">Very nice property.  Friendly staff. Beds comfortable. Only issue was that the hall and room had a peculiar odor which may be the cleaning products they use.  Several exits which made it nice for getting the luggage in and out. Staff very friendly. They offer a select of videos. Nice compliment of snacks​for purchase. Good value for the .  </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r452499016-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -276,6 +369,48 @@
     <t>July 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r445072785-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>445072785</t>
+  </si>
+  <si>
+    <t>12/18/2016</t>
+  </si>
+  <si>
+    <t>BEAUTIFUL HOTEL</t>
+  </si>
+  <si>
+    <t>I was planning a trip to Conroe TX &amp; did a hotel search.  The closer hotels I checked were either full, over priced (my opinion) or not pet friendly.  I was traveling with my puppy.  As a responsible dog owner, my dogs do not sleep in motel beds; my dogs sleep in pet carriers.  But, I do want them in the room with me &amp; I clean up after them; both inside (if necessary) &amp; outside.The staff was very friendly &amp; accommodating.  They not only offered; but insisted on helping me with my "luggage".I would definitely stay here again, if I'm in the area.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r420707833-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>420707833</t>
+  </si>
+  <si>
+    <t>09/20/2016</t>
+  </si>
+  <si>
+    <t>Nice motel, super-friendly staff</t>
+  </si>
+  <si>
+    <t>We hadn't stayed at a Candlewood in many years and were pleasantly surprised by this one. This was about the only place we could find in the area that was pet friendly. The property is well-groomed and looks fairly new, located near the interstate, hospital, tons of shopping and restaurants, yet tucked away in a secluded spot. The room was comfortable, water was hot with good pressure, the AC worked great, and the staff were very pleasant and helpful, everything I look for in a motel. It has a nice pool and covered outdoor space, as well as a designated pet-walking area. I have two minor complaints to share. First, the moment I opened the door to the room, we were almost floored by the overpowering smell of the cleaning solutions/products they use. It was so bad the first day my eyes were irritated. Also, the pet area outside is not lit at all, so is totally dark after sundown even though there is a light facing the parking lot located in the pet yard.We would stay here again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>We hadn't stayed at a Candlewood in many years and were pleasantly surprised by this one. This was about the only place we could find in the area that was pet friendly. The property is well-groomed and looks fairly new, located near the interstate, hospital, tons of shopping and restaurants, yet tucked away in a secluded spot. The room was comfortable, water was hot with good pressure, the AC worked great, and the staff were very pleasant and helpful, everything I look for in a motel. It has a nice pool and covered outdoor space, as well as a designated pet-walking area. I have two minor complaints to share. First, the moment I opened the door to the room, we were almost floored by the overpowering smell of the cleaning solutions/products they use. It was so bad the first day my eyes were irritated. Also, the pet area outside is not lit at all, so is totally dark after sundown even though there is a light facing the parking lot located in the pet yard.We would stay here again if in the area.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r410735373-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -327,6 +462,42 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r383627086-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>383627086</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>Count on Candlewood</t>
+  </si>
+  <si>
+    <t>I am clearly a fan of Candlewood. I think you get a whole lot of bang for the money with their properties. The staff is friendly and helpful. The places have all you could possibly need. They don't do breakfast, but I'm not one for breakfast so it doesn't bother me. Gym, laundry, pool, movies, games and books to borrow. It's just a cool place. Families on vacation should love this place. It's great for business as well. You can't miss with Candlewood.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r372459289-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>372459289</t>
+  </si>
+  <si>
+    <t>05/12/2016</t>
+  </si>
+  <si>
+    <t>Wedding</t>
+  </si>
+  <si>
+    <t>Me and my wife stayed her for our wedding party. At first I was worried because it is an extended stay hotel. To my surprise the room and hotel was awesome !! The full kitchen helped me stay on my diet three days of fast food would have killed me. The staff was awesome and the sales lady and front desk manager put the whole trip together for our family. This place rocks !!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r372216789-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -360,9 +531,6 @@
     <t>March 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>This was my first stay in a Candlewood Suites and I was very impressed with the Staff.  Everyone was friendly and more than willing to help in any manner possible.  I was having a problem with the lobby printer and an employee offered to have me use the staff printer.  The rooms were clean with plenty of amenities.  My standard room had a full refrigerator, stove top, coffee maker and microwave.  The rooms are good sized with good sized bathrooms.  My only complaint was the lack of options for the breakfast.  It's mostly danish type foods (and waffles) and I was looking for something a little healthier with some protein.  Since the rooms are all suites, next time I'll bring some breakfast food with me.  Overall, I would definitely recommend this hotel to friends and family.More</t>
   </si>
   <si>
@@ -382,6 +550,45 @@
   </si>
   <si>
     <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r326379201-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>326379201</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great place for a quick business trip </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enjoyed a quick one night stay for a business meeting near the Woodlands.  Room was clean and the bed was very comfortable.  Staff was also very nice.  Will be back when traveling to the area again.  Hotel is a bit hard to find because it sits back behind several businesses.  Would be a great place to stay if supporting a hospital patient at the nearby hospital. </t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r324970103-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>324970103</t>
+  </si>
+  <si>
+    <t>11/06/2015</t>
+  </si>
+  <si>
+    <t>Extended Stay</t>
+  </si>
+  <si>
+    <t>My family (3 year old and 2 dogs) stayed here for a month and a half after relocating to Texas from Indiana. From the moment we checked in, this was a great experience. The ladies at the front desk and the GM were always very friendly, polite and helpful with all our needs and questions. They were very accommodating. The hotel has a kitchen in it (minus the stove) which is great for cooking meals. They also provide you with additional things like slow cooker or blender in the lending locker. My son enjoyed borrowing movies we could use while there. The rooms were very clean and any time we needed more towels or supplies they were provided for us. The location is hidden away from I-45 and I always felt safe taking my dogs out late at night. The rate for an extended stay over 30 days is great! We could not have asked for a better home away from home while relocating! MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>My family (3 year old and 2 dogs) stayed here for a month and a half after relocating to Texas from Indiana. From the moment we checked in, this was a great experience. The ladies at the front desk and the GM were always very friendly, polite and helpful with all our needs and questions. They were very accommodating. The hotel has a kitchen in it (minus the stove) which is great for cooking meals. They also provide you with additional things like slow cooker or blender in the lending locker. My son enjoyed borrowing movies we could use while there. The rooms were very clean and any time we needed more towels or supplies they were provided for us. The location is hidden away from I-45 and I always felt safe taking my dogs out late at night. The rate for an extended stay over 30 days is great! We could not have asked for a better home away from home while relocating! More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r324388067-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
@@ -403,9 +610,6 @@
 We arrived late to the hotel and left early, so we didn't get to take a whole lot of time at the hotel, but our experience was great. I would recommend...After a long drive we stayed at this hotel before a Texas A&amp;M football game. The hotel was very reasonably priced and a reasonable drive from College Station. The hotel itself was very clean and had a new feel to it. The location of the hotel was in a nice area as well. Check-in was quick and easy and we were able to get to our room quickly. The hotel must have overbooked queen bed rooms because we got put in a King-suite (more expensive room). We would have preferred two beds instead of having to use the pullout; but in the hotels defense, we didn't request to be moved after we got to our room. We were tired and were fine with the room we were given.The room itself was very nice and very clean. The rooms had digital thermostats which was a nice modern touch you still don't see at a lot of hotels. Televisions in each room were flat screens. The hotel breakfast was a little lack luster. Make your own Texas-shaped waffles or eat on a pastry. There really isn't a breakfast area like you see at a lot of hotels, it is just set up in the lobby next to a few couches.We arrived late to the hotel and left early, so we didn't get to take a whole lot of time at the hotel, but our experience was great. I would recommend this hotel to others and would likely stay here again if I was in the area.MoreShow less</t>
   </si>
   <si>
-    <t>October 2015</t>
-  </si>
-  <si>
     <t>After a long drive we stayed at this hotel before a Texas A&amp;M football game. The hotel was very reasonably priced and a reasonable drive from College Station. 
 The hotel itself was very clean and had a new feel to it. The location of the hotel was in a nice area as well. Check-in was quick and easy and we were able to get to our room quickly. The hotel must have overbooked queen bed rooms because we got put in a King-suite (more expensive room). We would have preferred two beds instead of having to use the pullout; but in the hotels defense, we didn't request to be moved after we got to our room. We were tired and were fine with the room we were given.
 The room itself was very nice and very clean. The rooms had digital thermostats which was a nice modern touch you still don't see at a lot of hotels. Televisions in each room were flat screens. 
@@ -452,6 +656,45 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r293427983-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>293427983</t>
+  </si>
+  <si>
+    <t>07/28/2015</t>
+  </si>
+  <si>
+    <t>Convenient stay-cation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here to freshen up after a lake trip and relax. The room was comfortable and convenient. Mingle hour was nice offering beer, wine, and a selected food item. Check in was smooth. I liked the option to borrow additional kitchen appliances. That was real unique!  I used some ihg membership points and paid part in cash to save a little on the rate. Overall I'd stay in another candle wood if needed. </t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r275605926-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>275605926</t>
+  </si>
+  <si>
+    <t>05/29/2015</t>
+  </si>
+  <si>
+    <t>Second Visit, Great Both Times!</t>
+  </si>
+  <si>
+    <t>Husband stayed here for a week during a training a few months ago, and I came up and visited him for a couple of nights. Very nice property. We returned yesterday for a simple one-night stay (going to a concert at Cynthia Woods and did not want to drive the almost 2 hours back to our house afterwards). Again, pretty much perfect! Staff was wonderful both times, everything extremely clean and well- kept (including bath and kitchenette). Parking good, well-lit, nice pool area, family-friendly, I could go on and on... They also have a service where you can "check out" board games, waffle irons, slow cookers, etc, if you need them. I thought that that was a great touch. As some have mentioned, the location is a bit odd, but I enjoyed the seclusion. There are plenty of dining options (fast food and sit-down restaurants) in the area, and there is a Walgreen's about 5 minutes away, using the back roads. Very, very useful. I would recommend this property and/or return in a heartbeat. If you are looking for a good location, yet somewhere quiet and laid-back, give them a shot. You won't be sorry!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Husband stayed here for a week during a training a few months ago, and I came up and visited him for a couple of nights. Very nice property. We returned yesterday for a simple one-night stay (going to a concert at Cynthia Woods and did not want to drive the almost 2 hours back to our house afterwards). Again, pretty much perfect! Staff was wonderful both times, everything extremely clean and well- kept (including bath and kitchenette). Parking good, well-lit, nice pool area, family-friendly, I could go on and on... They also have a service where you can "check out" board games, waffle irons, slow cookers, etc, if you need them. I thought that that was a great touch. As some have mentioned, the location is a bit odd, but I enjoyed the seclusion. There are plenty of dining options (fast food and sit-down restaurants) in the area, and there is a Walgreen's about 5 minutes away, using the back roads. Very, very useful. I would recommend this property and/or return in a heartbeat. If you are looking for a good location, yet somewhere quiet and laid-back, give them a shot. You won't be sorry!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r270639782-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -509,6 +752,48 @@
     <t>We were highly impressed with this hotel, which is in an excellent location with close proximity to everything The Woodlands has to offer. The room was comfortably appointed with a kitchenette that included dishes, glassware, coffee, microwave and full size frig in the room. The staff was very friendly and pleasant and eager to address our requests for additional towels and coffee, etc.I called the hotel to book directly, so there were no issues with my reservation and, though guaranteed, my card was not charged until we arrived at the hotel around 10:00 P.M.I travel with 2 Maltese, so the hotel graciously accepted them and placed us in a room with easy access to a first floor exit door for their convenience and mine! Could not ask for a more pleasant or positive experience! I would highly recommend this hotel to others.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r253370646-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>253370646</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>Good value for money in overpriced area</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights whilst visiting The Woodlands. We picked it because we had stopped in Candlewood suites before and the rooms tend to be well-equipped, and also their prices were lower than most in this area - which has become overpriced lately.Rooms are fine, and include a small kitchenette which is nice. Location a little hard to find but only 5min from the Woodlands town center. Be aware of the fact that this is meant to be an extended stay hotel, and the room is only fully serviced once a week. However, trash etc. is picked up more regularly, this was not an issue for us.My only complaint was in the booking process. When I booked online, I did not notice that I got the month wrong on departure, and had booked for 31 nights instead of 3. This was corrected upon checkin but the clerk failed to inform me of the new room rate - which was nearly double what I had booked. I understand that with Candlewood the rate varies depending upon length of stay, but it is the clerks obligation to inform of the new rate. This made the rate significantly less competitive and while I understand it was my fault, it was quite annoying and unprofessional of the checkin clerk.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for 3 nights whilst visiting The Woodlands. We picked it because we had stopped in Candlewood suites before and the rooms tend to be well-equipped, and also their prices were lower than most in this area - which has become overpriced lately.Rooms are fine, and include a small kitchenette which is nice. Location a little hard to find but only 5min from the Woodlands town center. Be aware of the fact that this is meant to be an extended stay hotel, and the room is only fully serviced once a week. However, trash etc. is picked up more regularly, this was not an issue for us.My only complaint was in the booking process. When I booked online, I did not notice that I got the month wrong on departure, and had booked for 31 nights instead of 3. This was corrected upon checkin but the clerk failed to inform me of the new room rate - which was nearly double what I had booked. I understand that with Candlewood the rate varies depending upon length of stay, but it is the clerks obligation to inform of the new rate. This made the rate significantly less competitive and while I understand it was my fault, it was quite annoying and unprofessional of the checkin clerk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r252518071-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>252518071</t>
+  </si>
+  <si>
+    <t>02/03/2015</t>
+  </si>
+  <si>
+    <t>Okay hotel</t>
+  </si>
+  <si>
+    <t>The staff is very friendly. The room initially looked clean and as I was settling in I noticed a few dried coffee stains on the counter. I really didn't think anything of it. Through out my first night I was only woken up twice by the noise the neighbors were making. The second night was a little better. The worst complaint I had of the entire stay was the fact that my room never had Fox News. MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded February 18, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 18, 2015</t>
+  </si>
+  <si>
+    <t>The staff is very friendly. The room initially looked clean and as I was settling in I noticed a few dried coffee stains on the counter. I really didn't think anything of it. Through out my first night I was only woken up twice by the noise the neighbors were making. The second night was a little better. The worst complaint I had of the entire stay was the fact that my room never had Fox News. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r251707650-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -557,6 +842,42 @@
     <t>November 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r229937426-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>229937426</t>
+  </si>
+  <si>
+    <t>09/20/2014</t>
+  </si>
+  <si>
+    <t>Our trip was amazing!!</t>
+  </si>
+  <si>
+    <t>We were here to see the Luke Bryan concert. I suggested we stay at this hotel because I've stayed here before. The rooms are nice and clean and the staff made our trip. Avis, who works at the front desk is absolutely incredible. She's warm, friendly and inviting. She makes you feel right at home and she helps you with anything you ask. She absolutely made our trip wonderful. I would suggest this hotel to anyone. It is in close proximity to all the major places by taxi or car ride. You'll be glad you stayed here, especially if Avis is working. You may not want to leave!!! Ten stars!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>We were here to see the Luke Bryan concert. I suggested we stay at this hotel because I've stayed here before. The rooms are nice and clean and the staff made our trip. Avis, who works at the front desk is absolutely incredible. She's warm, friendly and inviting. She makes you feel right at home and she helps you with anything you ask. She absolutely made our trip wonderful. I would suggest this hotel to anyone. It is in close proximity to all the major places by taxi or car ride. You'll be glad you stayed here, especially if Avis is working. You may not want to leave!!! Ten stars!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r227784286-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>227784286</t>
+  </si>
+  <si>
+    <t>09/08/2014</t>
+  </si>
+  <si>
+    <t>A lot of useful amenities...</t>
+  </si>
+  <si>
+    <t>I was very pleased with my 2 nights stay there...The front desk staff are very friendly. Some guest  may be used to a luxurious 5 star hotel with fancy lighting and furniture but I really prefer this place. It's so homey and cozy.The had so many useful basic facilities like the a full kitchen with pots and pans, plates and cutlery, a big fridge and a washer/dryer! Dogs are welcome too! I left my favorite pair of earrings in my room. They're really worth nothing but the staff was nice enough to mail it to me so THANK YOU!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r218261250-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -623,6 +944,51 @@
     <t>When I arrived, the kitchen floor was sticky. I called the front desk and they said they would take care of it. They didn't. The next morning, I went to the front desk and mentioned that the floor was sticky and there was a broken zipper on the floor in the bedroom that I stepped on in my bare feet, making me feel like the room wasn't vacuumed. They comped me $20 and said they would take care of it. They didn't. The following day, my wife called them about the floor. They said they'd take care of it. They didn't. When I checked out, I mentioned the problem to the manager. He didn't apologize, but asked if he could do anything for me. This is an $80 hotel. I paid almost $200. I think clean rooms are the most important thing. Fixing problems are #2. Here, the staff did neither. I recommend you find somewhere else to stay. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r209804142-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>209804142</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>Cost effective comfort</t>
+  </si>
+  <si>
+    <t>It has been a year since the first visit to Candlewood Suites. The location is quiet, the place very well kept. Check in was quick and very courteous. The room was comfortable and very clean. There is easy access to get around in the woodlands. There is a nice pool and well lit parking. Some of the guests have pets and there is a designated area to walk a dog. Complimentary newspaper, functional free high speed wifi is also a benefit. Plenty of sources of food in the area.They also offer dvd's of films you can check out at not cost and provide pop-corn! You feel welcome and they are ready to help.Kudos on their maintenance. Price friendly too!MoreShow less</t>
+  </si>
+  <si>
+    <t>RICHARD S, General Manager at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded June 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2014</t>
+  </si>
+  <si>
+    <t>It has been a year since the first visit to Candlewood Suites. The location is quiet, the place very well kept. Check in was quick and very courteous. The room was comfortable and very clean. There is easy access to get around in the woodlands. There is a nice pool and well lit parking. Some of the guests have pets and there is a designated area to walk a dog. Complimentary newspaper, functional free high speed wifi is also a benefit. Plenty of sources of food in the area.They also offer dvd's of films you can check out at not cost and provide pop-corn! You feel welcome and they are ready to help.Kudos on their maintenance. Price friendly too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r206338450-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>206338450</t>
+  </si>
+  <si>
+    <t>05/20/2014</t>
+  </si>
+  <si>
+    <t>Good Value for a stop over</t>
+  </si>
+  <si>
+    <t>Nice and quite despite being next to a major freeway.  relatively easy access.  Good restaurants nearby (Twin Peaks).  We stopped here while on a film shoot with Major League Ball players.  The rooms are nice and clean, there's a small continental breakfast in the morning....and that's about it.  It's a nice friendly place to crash while passing through.  It does have a small pool, but when we were there in April it wasn't warm enough to enjoy.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>Nice and quite despite being next to a major freeway.  relatively easy access.  Good restaurants nearby (Twin Peaks).  We stopped here while on a film shoot with Major League Ball players.  The rooms are nice and clean, there's a small continental breakfast in the morning....and that's about it.  It's a nice friendly place to crash while passing through.  It does have a small pool, but when we were there in April it wasn't warm enough to enjoy.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r205394062-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -638,9 +1004,6 @@
     <t>My husband and I normally stay at the Woodlands Country Club, but we decided to bring our pets with us so we stayed at Candlewood Suites. It was very clean and comfortable. The shower was a little off and didn't work the best. Overall, I would stay here again if we decide to bring our dogs with us to visit family.MoreShow less</t>
   </si>
   <si>
-    <t>April 2014</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded May 30, 2014</t>
   </si>
   <si>
@@ -665,12 +1028,6 @@
     <t>Booked a block of rooms last week at this location for my crew.  All rooms were very clean and stocked. Desk staff very helpful and polite. Grounds very nice.  Hotel sets back from highway a good bit. Helps reduce the highway noise.  Close to shops and restaurants.  Planning to stay here again soon. MoreShow less</t>
   </si>
   <si>
-    <t>RICHARD S, General Manager at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded June 11, 2014</t>
-  </si>
-  <si>
-    <t>Responded June 11, 2014</t>
-  </si>
-  <si>
     <t>Booked a block of rooms last week at this location for my crew.  All rooms were very clean and stocked. Desk staff very helpful and polite. Grounds very nice.  Hotel sets back from highway a good bit. Helps reduce the highway noise.  Close to shops and restaurants.  Planning to stay here again soon. More</t>
   </si>
   <si>
@@ -693,6 +1050,48 @@
   </si>
   <si>
     <t>The Hotel was in a great location.  Staff was friendly and pleasant to deal with.  We were in a hurry checking out as usual.  Thought we had packed everything.  To our surprise when we got home I realized I have forgot to pack my Blood Pressure Cuff.  So I called the next day and told them I had left it there and also one Powerball ticket on top of the Microwave.  I spoke to a very nice young lady named Annie.  I told her I had left it in the room and since Monday was the day for the cleaning lady to come in I really can't believe they couldn't see it on the right side of the television set.  Oh well I was told they would call me back.  Well here comes the next day and I called again and to Annie's surprise someone was supposed to call me to tell me they couldn't find either of the items I left behind.  Well I realize it was my fault I left them there but I have left things at hotels even in the Bahamas and they found them so all can tell you is make sure you don't leave anything behind as this Hotel.  I hope they take care of my $60.00 Blood Pressure cuff.  I can't say anything bad about the Place but because of this I won't ever go back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r185998239-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>185998239</t>
+  </si>
+  <si>
+    <t>11/26/2013</t>
+  </si>
+  <si>
+    <t>Good for business travel</t>
+  </si>
+  <si>
+    <t>I stayed here 2 nights in a studio room on business travel to an office in The Woodlands. This hotel is very clean!  My A/C unit worked perfect, plenty of thick pillows on my beds, and nice table/desk that extends out between the kitchen and living area for my to plop my laptop on.  The hotel was quiet and secluded from the main road, it sits behind some trees and two other buildings.  Many of the other hotels I passed in the area were directly on the main busy road; Frontage Rd I believe.  My only issue was that the hotel has a very, very small continental breakfast so take note if that's important to you.  Also, this hotel has their rooms cleaned once a week, since I only stayed 2 nights this didn't matter to me.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>I stayed here 2 nights in a studio room on business travel to an office in The Woodlands. This hotel is very clean!  My A/C unit worked perfect, plenty of thick pillows on my beds, and nice table/desk that extends out between the kitchen and living area for my to plop my laptop on.  The hotel was quiet and secluded from the main road, it sits behind some trees and two other buildings.  Many of the other hotels I passed in the area were directly on the main busy road; Frontage Rd I believe.  My only issue was that the hotel has a very, very small continental breakfast so take note if that's important to you.  Also, this hotel has their rooms cleaned once a week, since I only stayed 2 nights this didn't matter to me.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r185870412-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>185870412</t>
+  </si>
+  <si>
+    <t>11/25/2013</t>
+  </si>
+  <si>
+    <t>Good extended stay</t>
+  </si>
+  <si>
+    <t>Candlewood suites was a good extended stay. I don't think it had anything exceptional but it attended all my necessities so i have nothing to complain. It was very localized in a good and tranquil place, close to the main road though. I liked the atmosphere of that place. I really recommend that for everybody, the service was good, the internet was good, and my bedroom was ok.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Candlewood suites was a good extended stay. I don't think it had anything exceptional but it attended all my necessities so i have nothing to complain. It was very localized in a good and tranquil place, close to the main road though. I liked the atmosphere of that place. I really recommend that for everybody, the service was good, the internet was good, and my bedroom was ok.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r185522565-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
@@ -712,9 +1111,6 @@
 done. In the morning my check-out...I have to admit that I was a little nervous about my first stay at the Candlewood Suites in The Woodlands, TX.  I have stayed at some very nice Candlewood Suites and some older rundown ones.  This property appears to be new or recently updated and so this was a great stay overall!The hotel is located off of I-45, and is slightly difficult to find.  It's not the hotel's fault is just the way the side roads are designed off of I-45 in that they only run one-way.  The hotel is tucked in a quiet street near the hospital and some auto dealerships.  There are tons of restaurants just a short drive away, although none are within walking distance of the hotel.  The lobby is modern and well furnished.  My check-in while swift and efficient was done with the warmth of talking to Siri on my iphone.  My room was a king studio room and it was of a very good size.  There is the typical fridge and mini-stove, but I didn't use any of that for a 1 night stay. Most important to me was that the room was super clean and comfortable, there was a great work desk with plenty of power outlets, and a very comfortable bed.  I particularly liked the strong shower in the morning.  The free wi-fi as fast which is always good when trying to get work done. In the morning my check-out was quick as well, and just about as unfriendly, but what can you do.  This hotel chain does not offer free breakfast, but I found a Starbucks nearby, and there are plenty of other places for a quick bite.  While I normally prefer more of a full service hotel, I wanted my IGH Rewards points while staying in The Woodlands and there aren't too many options.  But I would absolutely stay here again the next time in town!MoreShow less</t>
   </si>
   <si>
-    <t>November 2013</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded December 9, 2013</t>
   </si>
   <si>
@@ -771,6 +1167,48 @@
   </si>
   <si>
     <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r158596121-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>158596121</t>
+  </si>
+  <si>
+    <t>04/23/2013</t>
+  </si>
+  <si>
+    <t>Always feel wellcome</t>
+  </si>
+  <si>
+    <t>Just always very very accomodating! Beyond friendly staff......and true hospitality professionals.Had to make another unexpected trip to the area for my daughter having tests and was also able to check in very early and let her rest.......they offered to send some water and coffee when we arrived. It just feels like staying with family when we stay here</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r157052185-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>157052185</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>ok stay</t>
+  </si>
+  <si>
+    <t>I stayed here because it was convenient to the location I was going. It was a nice enough hotel but I just cannot get past no housekeeping on the weekends. They claim the price is lower but it is about what i pay all the time anywhere else. The young lady at the front desk was very nice.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded April 27, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2013</t>
+  </si>
+  <si>
+    <t>I stayed here because it was convenient to the location I was going. It was a nice enough hotel but I just cannot get past no housekeeping on the weekends. They claim the price is lower but it is about what i pay all the time anywhere else. The young lady at the front desk was very nice.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r153630077-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
@@ -845,7 +1283,47 @@
     <t>Stay usually once a month and its always a treat....from arrival, staff, cleanliness, location etc....its top notch. Staff really cares and you can tell that it steems from the top......will stay no place else when in Woodlands!AZ</t>
   </si>
   <si>
-    <t>December 2012</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r145780122-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>145780122</t>
+  </si>
+  <si>
+    <t>11/19/2012</t>
+  </si>
+  <si>
+    <t>Good Experience</t>
+  </si>
+  <si>
+    <t>Overall the hotel was nice and clean. They don't serve a breakfast but there's a Denny's right down the street. They do a have pool that nice in the warmer season, they also have outdoor grill and patio for cooking out and having friends over. The staff was friendly and helpful and on Wednesday evening they had a guest appreication and served food along with wine and beer.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r145753152-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>145753152</t>
+  </si>
+  <si>
+    <t>Totally average, not worth the price</t>
+  </si>
+  <si>
+    <t>Average really does sum this hotel up. If you can get it for under/right around $100 per night, then no problem...but anything more and you are probably going to be annoyed. 
+The good: decent location (right off of 45 south), there is a small workout room that looked well-maintained, a little computer with printer in the lobby for guest use, and a small snack bar with anything little you might need to tide you over between meals. The hotel was clean, from the sheets to the bathroom to the kitchenette. The front desk was friendly and accommodating. We had several boxes shipped to us while we were staying at the hotel, and we were able to retrieve all of them from the front desk with no problem.
+The bad: the walls are SUPER thin, and this is coming from an extremely heavy sleeper. My roommate and I were woken up multiple times each night by the noise coming from the room next door and I am not exaggerating when I say that she has slept through a minor car crash! It's REALLY like your neighbors are in your room. The rooms are totally average, nothing luxury or high-end there. We didn't have our room cleaned once the entire time (4 nights) we stayed. The hotel overcharged us by almost $300, and even though we were able to get the bill corrected, it was an extra annoyance at checkout (and made...Average really does sum this hotel up. If you can get it for under/right around $100 per night, then no problem...but anything more and you are probably going to be annoyed. The good: decent location (right off of 45 south), there is a small workout room that looked well-maintained, a little computer with printer in the lobby for guest use, and a small snack bar with anything little you might need to tide you over between meals. The hotel was clean, from the sheets to the bathroom to the kitchenette. The front desk was friendly and accommodating. We had several boxes shipped to us while we were staying at the hotel, and we were able to retrieve all of them from the front desk with no problem.The bad: the walls are SUPER thin, and this is coming from an extremely heavy sleeper. My roommate and I were woken up multiple times each night by the noise coming from the room next door and I am not exaggerating when I say that she has slept through a minor car crash! It's REALLY like your neighbors are in your room. The rooms are totally average, nothing luxury or high-end there. We didn't have our room cleaned once the entire time (4 nights) we stayed. The hotel overcharged us by almost $300, and even though we were able to get the bill corrected, it was an extra annoyance at checkout (and made us late to our next destination).All in all, it was an average stay at a clean hotel. At $100 per night or less, it would be fine. Anything over, and it's an overcharge for sure. Try to get a room NOT connected to anyone else's if you want an uninterrupted night's sleep!MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded December 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2012</t>
+  </si>
+  <si>
+    <t>Average really does sum this hotel up. If you can get it for under/right around $100 per night, then no problem...but anything more and you are probably going to be annoyed. 
+The good: decent location (right off of 45 south), there is a small workout room that looked well-maintained, a little computer with printer in the lobby for guest use, and a small snack bar with anything little you might need to tide you over between meals. The hotel was clean, from the sheets to the bathroom to the kitchenette. The front desk was friendly and accommodating. We had several boxes shipped to us while we were staying at the hotel, and we were able to retrieve all of them from the front desk with no problem.
+The bad: the walls are SUPER thin, and this is coming from an extremely heavy sleeper. My roommate and I were woken up multiple times each night by the noise coming from the room next door and I am not exaggerating when I say that she has slept through a minor car crash! It's REALLY like your neighbors are in your room. The rooms are totally average, nothing luxury or high-end there. We didn't have our room cleaned once the entire time (4 nights) we stayed. The hotel overcharged us by almost $300, and even though we were able to get the bill corrected, it was an extra annoyance at checkout (and made...Average really does sum this hotel up. If you can get it for under/right around $100 per night, then no problem...but anything more and you are probably going to be annoyed. The good: decent location (right off of 45 south), there is a small workout room that looked well-maintained, a little computer with printer in the lobby for guest use, and a small snack bar with anything little you might need to tide you over between meals. The hotel was clean, from the sheets to the bathroom to the kitchenette. The front desk was friendly and accommodating. We had several boxes shipped to us while we were staying at the hotel, and we were able to retrieve all of them from the front desk with no problem.The bad: the walls are SUPER thin, and this is coming from an extremely heavy sleeper. My roommate and I were woken up multiple times each night by the noise coming from the room next door and I am not exaggerating when I say that she has slept through a minor car crash! It's REALLY like your neighbors are in your room. The rooms are totally average, nothing luxury or high-end there. We didn't have our room cleaned once the entire time (4 nights) we stayed. The hotel overcharged us by almost $300, and even though we were able to get the bill corrected, it was an extra annoyance at checkout (and made us late to our next destination).All in all, it was an average stay at a clean hotel. At $100 per night or less, it would be fine. Anything over, and it's an overcharge for sure. Try to get a room NOT connected to anyone else's if you want an uninterrupted night's sleep!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r144569628-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
@@ -863,9 +1341,6 @@
     <t>For the price of this hotel the bedding, towels, and quality of the room surpasses previous experiences at $100 hotels.  The bed and bedding was what you expect at a typical high dollar room.  This hotel was very clean and new too!  The hotel staff were friendly.  I will stay here again.</t>
   </si>
   <si>
-    <t>November 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r143703574-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -908,6 +1383,45 @@
     <t>I first stayed at this Candlewood Suites for an extended stay in the summer of 2011 during a government internship. When I first arrived, I was greeted warmly and was given a fantastic room (of my choice). At first the kitchenette seemed to be devoid of silverware, and so when I called the front desk to ask for replacements, the receptionist come up to my room personally with hands full of silverware, apologizing for any inconvenience. It was a couple of days later when I looked in the dish washer that I found all the silverware I thought I was missing. Over the time I spent there I felt like I was part of the hotel family, each of the front desk workers as polite as the next. They each knew my name, asked how I was doing and were even content to chat a while. OOH AND THOSE BEDS! Never had a comfier night's sleep! I even got some items from the Cupboard (small room with munchies and various travel items for sale) free of charge! Even more personal are the Tuesday, Wednesday, and Thursday guest parties. In the lobby on these days, pizza, spaghetti, pasta, salad, cookies, and other foods were put out, along with beer and wine. It was a great way to build camaraderie between the hotel guests and the staff, as well as introduce Shiner Bock to far-from-homers like myself. It was actually tough leaving...I first stayed at this Candlewood Suites for an extended stay in the summer of 2011 during a government internship. When I first arrived, I was greeted warmly and was given a fantastic room (of my choice). At first the kitchenette seemed to be devoid of silverware, and so when I called the front desk to ask for replacements, the receptionist come up to my room personally with hands full of silverware, apologizing for any inconvenience. It was a couple of days later when I looked in the dish washer that I found all the silverware I thought I was missing. Over the time I spent there I felt like I was part of the hotel family, each of the front desk workers as polite as the next. They each knew my name, asked how I was doing and were even content to chat a while. OOH AND THOSE BEDS! Never had a comfier night's sleep! I even got some items from the Cupboard (small room with munchies and various travel items for sale) free of charge! Even more personal are the Tuesday, Wednesday, and Thursday guest parties. In the lobby on these days, pizza, spaghetti, pasta, salad, cookies, and other foods were put out, along with beer and wine. It was a great way to build camaraderie between the hotel guests and the staff, as well as introduce Shiner Bock to far-from-homers like myself. It was actually tough leaving them that year.  When I returned the past summer (2012) they continued my reduced rate and when I walked in greeted me like no time had passed at all. Although it lacks some of the finer decorations of fancy hotels, there is absolutely no charm lacking at The Woodlands Candlewood Suites. The staff, the rooms, the FREE laundry are each an amenity worthy of a 5 star hotel. I highly recommend this extended hotel stay to anyone far from home. Inexpensive, personal, and accommodating in such a setting truly makes you forget you are in such a huge metropolitan area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r142211576-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>142211576</t>
+  </si>
+  <si>
+    <t>10/07/2012</t>
+  </si>
+  <si>
+    <t>Great value place to stay near the woodlands pavilion</t>
+  </si>
+  <si>
+    <t>My girlfriend and I went to the woodlands this past weekend to watch Florence + The Machine and I booked this place based on good reviews here.  I was not disappointed!  This place is just one exit down from the woodlands mall so less than five minutes drive.  You dont even have to get back on the highway you can just stay on the service road (the mall is even on the same side of the highway).  It is set back a good bit even from the service road so there is no traffic noise.  Our room was very clean, we had good pressure out of our shower, there is a little kitchenette with a full size fridge, it was everything we needed.  On the other side of the highway but on the same exit there are several food options (buffalo wild wings was still open after we got out of the concert).  I recommend going to "Another Broken Egg" for breakfast.  The only thing that I will say is that the GPS will most likely tell you to exit after its too late and you'll have to go down to the next one which is a couple minutes off so exit early.  This is where I will be staying on my future concert trips out there.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>My girlfriend and I went to the woodlands this past weekend to watch Florence + The Machine and I booked this place based on good reviews here.  I was not disappointed!  This place is just one exit down from the woodlands mall so less than five minutes drive.  You dont even have to get back on the highway you can just stay on the service road (the mall is even on the same side of the highway).  It is set back a good bit even from the service road so there is no traffic noise.  Our room was very clean, we had good pressure out of our shower, there is a little kitchenette with a full size fridge, it was everything we needed.  On the other side of the highway but on the same exit there are several food options (buffalo wild wings was still open after we got out of the concert).  I recommend going to "Another Broken Egg" for breakfast.  The only thing that I will say is that the GPS will most likely tell you to exit after its too late and you'll have to go down to the next one which is a couple minutes off so exit early.  This is where I will be staying on my future concert trips out there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r140438430-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>140438430</t>
+  </si>
+  <si>
+    <t>09/16/2012</t>
+  </si>
+  <si>
+    <t>We loved it!</t>
+  </si>
+  <si>
+    <t>We were impressed with this hotel -- the room was clean and large -- there was a kitchenette and a good sized bathroom.  The hotel seems designed for long term stays but our short stay was also fun.  The staff were really friendly and helpful with directions.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r138301952-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -941,9 +1455,6 @@
     <t>I can't say enough good things about our stay. We were there 5 days nice room, quite and extremely friendly staff. As our daughter moved to the area we will look forward to staying again.If I have anything negative to say it would be slow cricky sounding elevator. Also the signs directing you to the hotel could be more visible.</t>
   </si>
   <si>
-    <t>July 2012</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r133080994-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -957,6 +1468,39 @@
   </si>
   <si>
     <t>What a beautiful location! Near the hospital with easy access to I45, but very quiet and CLEAN! The Lobby was very inviting and the night staff welcoming! Thank you for your hospitality!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r132769142-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>132769142</t>
+  </si>
+  <si>
+    <t>06/25/2012</t>
+  </si>
+  <si>
+    <t>Lovely Desk Clerk</t>
+  </si>
+  <si>
+    <t>The person who worked at the front desk was absolutely wonderful. She made sure that our party's rooms were together; she also was kind enough to ask how we enjoyed the concert at the pavilion. The rooms themselves were nice, large, and well equipped.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r130894806-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>130894806</t>
+  </si>
+  <si>
+    <t>05/29/2012</t>
+  </si>
+  <si>
+    <t>Great value for money</t>
+  </si>
+  <si>
+    <t>I loved my one night stay in Candlewood Suites, The Woodlands Tx. I definitely got great value for my money. The bedroom was beautiful with good ambience. The staff were top notch in making my stay as comfortable as possible. I got an early check-in (8am) which I am truly grateful for after a long transatlantic flight. The hotel is about 7 minutes drive from The Woodlands Mall. I didn't use the gym but checked it out and it has all the necessary equipment. I will definitely use the hotel again!</t>
+  </si>
+  <si>
+    <t>May 2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r130379437-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
@@ -977,9 +1521,6 @@
 So why did I stay at the Candlewood and not go to the Hilton property down the street? I called the IC Ambassador Support...Poor Value/Service: I stayed this past week/weekend at the Candlewood Suites, The Woodlands. When I booked my reservation I was confirmed with my companies corporate rate. When I arrived for check-in I was informed by the lady at the front desk that since there was a special event going on that weekend (Ironman), company rates were not honored. When I questioned the employee's comment, the Manager (Richard S. ?) swooped into the conversation and stated that special events are typically not honored. I have never had this issue in the past at other Intercontinental properties.The driver of the poor value comes from what I was charged per night ($209.00) and what I received, (small room, broken dishwasher, thin walls, and loud air conditioning window unit). Honestly I received better value while staying at a hotel in a 3rd world country. I have stayed at Holiday Inn with nicer standard rooms than the "suite" I was assigned. The room was worth $70-80 at most.The driver for the poor service is how the manager handled the situation. Instead of making an exception for one customer who travels frequently to the area and who's employer has many employees staying in the area (consultants), he insisted on the higher rate which was not known when I first booked. So why did I stay at the Candlewood and not go to the Hilton property down the street? I called the IC Ambassador Support line and was informed that the rate would be adjusted during check-out. Ok, no problem. During check-out I informed the lady at the front desk of the company rate not being applied. She checked my profile and notified me that the manager left a note saying not to change the rate. If that is how Candlewood does business, lesson learned. I will ask the 45 other consultants working down there to only go to the Hilton properties. After all, when I called Hilton down the street, they said they would honor my company's rate.MoreShow less</t>
   </si>
   <si>
-    <t>May 2012</t>
-  </si>
-  <si>
     <t>Melissa_W55667, Director of Sales at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded June 5, 2012</t>
   </si>
   <si>
@@ -1028,6 +1569,36 @@
     <t>September 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r122928118-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>122928118</t>
+  </si>
+  <si>
+    <t>01/11/2012</t>
+  </si>
+  <si>
+    <t>Clean, friendly, great location!</t>
+  </si>
+  <si>
+    <t>I stay at Candlewood Suites whenever I can. This property is great. Friendly staff, easy to find, and several restaurants nearby. I would recommend this location to anyone staying in The Woodlands area of Houston.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r122439266-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>122439266</t>
+  </si>
+  <si>
+    <t>01/02/2012</t>
+  </si>
+  <si>
+    <t>Great value for long or short term stays</t>
+  </si>
+  <si>
+    <t>Great overall value, but no breakfast available.  I have stayed a few nights every week for the last few months.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r121578485-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1094,6 +1665,42 @@
     <t>I have some "status" level at whatever program their chain is in and the Candlewood was literally the only hotel I stayed in where they gave me a very nice room (they are all nice), and a present.My only complaint is that the road leading up to it looked dark and scary. It was sort of a leap of faith to drive there. Extra signage would help.  But for the price, you definitely get nice service and a clean, quiet comfortable room.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r120401974-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>120401974</t>
+  </si>
+  <si>
+    <t>11/09/2011</t>
+  </si>
+  <si>
+    <t>Dogs the size of shetland ponies</t>
+  </si>
+  <si>
+    <t>I stayed at The Woodlands Candlewood Suites in Texas. The rooms are nice but they allow people to roam around with crap eaters the size of shetland ponies. They stink as bad as their owners. You can smell dog in the rooms. Why do hotels allow dog nuts to bring these nasty beasts in here? I'm here working for a year. I'll be finding a hotel that doesn't allow crap eaters in their hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at The Woodlands Candlewood Suites in Texas. The rooms are nice but they allow people to roam around with crap eaters the size of shetland ponies. They stink as bad as their owners. You can smell dog in the rooms. Why do hotels allow dog nuts to bring these nasty beasts in here? I'm here working for a year. I'll be finding a hotel that doesn't allow crap eaters in their hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r119398494-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>119398494</t>
+  </si>
+  <si>
+    <t>10/17/2011</t>
+  </si>
+  <si>
+    <t>Clean, Quiet, Secluded</t>
+  </si>
+  <si>
+    <t>This place was a nice surprise. My wife and I stayed here one night as we were doing some shopping in The Woodlands. We didn't realize it was an extended stay hotel until we checked in but it didn't matter. It's away from the crowd, but close enough to everything in the area. We got the room we wanted and the the rate was great. Room was equipped for extended stay with full size refrigerator/freezer, range top, microwave etc.Would stay here again for sure.</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r119338786-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1109,9 +1716,6 @@
     <t>Stayed here recently because of Trip Advisor reviews. Hotel staff was very friendly, the room was very clean, bed very comfortable, free internet was a plus, and there was a wonderful reception for all of the hotel guests with free beer, wine, pizza, chips and salsa from 5:30 to 7:30. Parking lot was well lighted. The room is functionally arranged and the kithenette a real bonus. Only negative is that they do not offer breakfast, but they do have free coffee and some fruit. Or you can buy some yogurt, chocolate milk, etc. in the lobby for a small price.  Also, a little hard to find, but in a great location close to the large Woodlands Mall, restaurants, and the Woodlands golf courses. Will stay there again, really enjoyed it.MoreShow less</t>
   </si>
   <si>
-    <t>October 2011</t>
-  </si>
-  <si>
     <t>artkayak, Director of Sales at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded October 17, 2011</t>
   </si>
   <si>
@@ -1160,6 +1764,48 @@
     <t>May 2011</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r117152445-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>117152445</t>
+  </si>
+  <si>
+    <t>08/23/2011</t>
+  </si>
+  <si>
+    <t>truly home away from home</t>
+  </si>
+  <si>
+    <t>Family tragedy brought me to TX Jan-May 2011. After staying 3 months w/ kind family friends moved into Candlewood w/ family dog for 7 weeks before going home to AK. Management &amp; staff were exceptional blend of warmth &amp; professionalism. Hotel was impeccably clean &amp; somehow seemed quiet even when full. Always felt safe even when out for late dog walk. Clean laundry facilities for use at no extra charge, modern/very well lit exercise room, well maintained outdoor pool. Location was perfect w/quick access to major roads, restaurants, shopping. I rarely write reviews, but for me this was a hotel where the whole was greater than the sum of its parts. i appreciated how much it felt like home.MoreShow less</t>
+  </si>
+  <si>
+    <t>artkayak, Director of Sales at Candlewood Suites Houston, The Woodlands, responded to this reviewResponded August 31, 2011</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2011</t>
+  </si>
+  <si>
+    <t>Family tragedy brought me to TX Jan-May 2011. After staying 3 months w/ kind family friends moved into Candlewood w/ family dog for 7 weeks before going home to AK. Management &amp; staff were exceptional blend of warmth &amp; professionalism. Hotel was impeccably clean &amp; somehow seemed quiet even when full. Always felt safe even when out for late dog walk. Clean laundry facilities for use at no extra charge, modern/very well lit exercise room, well maintained outdoor pool. Location was perfect w/quick access to major roads, restaurants, shopping. I rarely write reviews, but for me this was a hotel where the whole was greater than the sum of its parts. i appreciated how much it felt like home.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r116916346-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>116916346</t>
+  </si>
+  <si>
+    <t>08/18/2011</t>
+  </si>
+  <si>
+    <t>Really friendly staff, service dog and pet friendly.</t>
+  </si>
+  <si>
+    <t>Bring your dog. Bring your significant other. Go when they are having the free reception!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Bring your dog. Bring your significant other. Go when they are having the free reception!!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r115669918-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
   </si>
   <si>
@@ -1215,6 +1861,39 @@
   </si>
   <si>
     <t>We had a large high school group that needed a safe, comfortable, and nice place to stay for a local sport event.  The staff was fabulous when booking the rooms.  The hotel rooms were clean, fresh, and very comfortable.  The staff was very friendly and accommodating during our stay and they made the check in/out process very easy.  We'll stay again.It would be a dream come true if they had a self service breakfast area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r99474771-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>99474771</t>
+  </si>
+  <si>
+    <t>03/08/2011</t>
+  </si>
+  <si>
+    <t>Comfortable &amp; quiet!</t>
+  </si>
+  <si>
+    <t>A very new hotel in a great location -- close to everything yet off the beaten path. It's extremely quiet and very comfortable (especially the beds).  Windows open in the room and each has a small kitchen.  Nice desk area and big bathroom. Employees in the lobby were very nice and accomodating.  General Manager went out of his way to meet each of us and was very helpful.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r98708674-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>98708674</t>
+  </si>
+  <si>
+    <t>03/02/2011</t>
+  </si>
+  <si>
+    <t>Great Hotel in Quiet Wooded Area</t>
+  </si>
+  <si>
+    <t>This was our first stay at a Candlewood Suites property in quite some time, and we were pleasantly surprised, and pleased, with our stay. The hotel is brand new, 4 floors, and conveniently located on I-45, yet nestled in a quiet wooded area just west of the southbound service road. It is close, about 2-3 blocks, from St. Luke's Hospital. Shopping options are endless, including a Sam Moon's right across the interstate.The room was very large, with a full kitchen, and flat-panel TV. The staff was very efficient, and quite friendly, during check-in, and again at check-out.We highly recommend this hotel!</t>
+  </si>
+  <si>
+    <t>February 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r84900679-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
@@ -1278,6 +1957,24 @@
 I was surprised to see such amenities in an extended stay property.  When pulling in the entrance there was a Gazebo boasting a patio area including a gas grill and later we found very stylish and comfortable furniture.  It was located adjacent to a full size swimming pool.
 In addition to Wi-Fi throughout, the lobby had a business center with a computer and a color printer as well as a mini store with free coffee. There was a large fitness room with ample equipment.  The hotel also offered a laundry room which was free of charge to use. This always comes in handy especially when traveling with extended family and friends, someone always has to find a Laundromat!
 The rooms were very spacious, fully stocked cooking utensils and dinnerware in kitchen, dishwasher, and full size refrigerator with ice maker, coffee pot, a closet with an actual door, and even a clothes...The feeling of welcome home was the ambiance of this extended stay hotel.  We were greeted in a friendly manner by the front desk staff, and promptly checked in. The General Manager and the Sales Director happened to be close by and introduced themselves, and offered to attend to any extra needs we may have.  They knew we had a large party arriving sporadically over the next day or so and made certain we were all located on the same floor and our rooms were close to one another.  I was surprised to see such amenities in an extended stay property.  When pulling in the entrance there was a Gazebo boasting a patio area including a gas grill and later we found very stylish and comfortable furniture.  It was located adjacent to a full size swimming pool.In addition to Wi-Fi throughout, the lobby had a business center with a computer and a color printer as well as a mini store with free coffee. There was a large fitness room with ample equipment.  The hotel also offered a laundry room which was free of charge to use. This always comes in handy especially when traveling with extended family and friends, someone always has to find a Laundromat!The rooms were very spacious, fully stocked cooking utensils and dinnerware in kitchen, dishwasher, and full size refrigerator with ice maker, coffee pot, a closet with an actual door, and even a clothes basket, ironing board and iron.  I had booked a King room and was pleased at the spaciousness as well as the comfortableness of the bed.  The bedding was plush with additional pillows allowing a choice of feather or Polly foam.   There was a flat screen TV, Premium cable channels, and a DVD player.  The bathroom had a nice size tub with plush and plenty of towels.  An oversized recliner in the corner and a full size table with work station added to the efficiency of the room.The location was convenient to everything. There were abundant restaurants within a few exits, the Woodlands mall, and Wal-Mart within minutes.  Although the hotel is not visible from I-45 it has easy access on and off the Interstate.   My whole family totally enjoyed our stay and we have already booked another weekend in November. I would recommend this hotel for long and short stays. If I had to rate it on a scale of 1-5,  I would give it a 5.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56764-d1752009-r81186184-Candlewood_Suites_Houston_The_Woodlands-The_Woodlands_Texas.html</t>
+  </si>
+  <si>
+    <t>81186184</t>
+  </si>
+  <si>
+    <t>09/27/2010</t>
+  </si>
+  <si>
+    <t>Nice, but beware of pet fees</t>
+  </si>
+  <si>
+    <t>This hotel is brand new, it was very clean.  Free parking. But when we booked we were not aware of a 75$ pet fee.  We got there and huge pet fee, for a 8 lb dog.Anyway, I would stay here again.  Service was ok , sheets were pretty stiff.  Bed was kind of hard.  But the big plus for me was clean.</t>
+  </si>
+  <si>
+    <t>September 2010</t>
   </si>
 </sst>
 </file>
@@ -1812,14 +2509,10 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N2" t="s"/>
+      <c r="O2" t="s"/>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
@@ -1832,7 +2525,7 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
@@ -1848,31 +2541,31 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>55</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
-      </c>
-      <c r="M3" t="n">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>52</v>
       </c>
       <c r="O3" t="s">
         <v>59</v>
@@ -1889,7 +2582,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1926,13 +2619,13 @@
         <v>64</v>
       </c>
       <c r="M4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
         <v>65</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1943,14 +2636,10 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>66</v>
-      </c>
-      <c r="X4" t="s">
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
         <v>67</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5">
@@ -1966,54 +2655,48 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
         <v>69</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="M5" t="n">
-        <v>5</v>
-      </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>74</v>
-      </c>
-      <c r="O5" t="s">
-        <v>53</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
-      <c r="R5" t="n">
-        <v>5</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5</v>
-      </c>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>5</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -2041,22 +2724,22 @@
         <v>76</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="O6" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2070,7 +2753,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
@@ -2107,13 +2790,13 @@
         <v>84</v>
       </c>
       <c r="M7" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
         <v>85</v>
       </c>
       <c r="O7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2124,10 +2807,14 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
       <c r="Y7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
@@ -2143,7 +2830,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -2152,45 +2839,39 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
-      </c>
-      <c r="P8" t="n">
-        <v>5</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>5</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9">
@@ -2206,7 +2887,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2215,25 +2896,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="O9" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2247,7 +2928,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10">
@@ -2263,7 +2944,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2272,31 +2953,31 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
       <c r="S10" t="n">
         <v>5</v>
       </c>
@@ -2310,7 +2991,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
@@ -2326,34 +3007,34 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
         <v>103</v>
       </c>
-      <c r="G11" t="s">
-        <v>46</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" t="s">
-        <v>104</v>
-      </c>
-      <c r="J11" t="s">
-        <v>105</v>
-      </c>
       <c r="K11" t="s">
+        <v>109</v>
+      </c>
+      <c r="L11" t="s">
+        <v>110</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
         <v>106</v>
       </c>
-      <c r="L11" t="s">
-        <v>107</v>
-      </c>
-      <c r="M11" t="n">
-        <v>5</v>
-      </c>
-      <c r="N11" t="s">
-        <v>102</v>
-      </c>
       <c r="O11" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2367,7 +3048,7 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
@@ -2383,7 +3064,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -2392,38 +3073,32 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="J12" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="K12" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="L12" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="M12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="O12" t="s">
-        <v>114</v>
-      </c>
-      <c r="P12" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="n">
-        <v>5</v>
-      </c>
+      <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>5</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
@@ -2446,7 +3121,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -2455,37 +3130,35 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K13" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
-      </c>
-      <c r="P13" t="n">
-        <v>4</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>5</v>
-      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2493,7 +3166,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
@@ -2509,7 +3182,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -2518,31 +3191,33 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="O14" t="s">
-        <v>114</v>
-      </c>
-      <c r="P14" t="s"/>
+        <v>74</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
       <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -2554,7 +3229,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
@@ -2570,7 +3245,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2579,32 +3254,34 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J15" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K15" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L15" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="O15" t="s">
-        <v>79</v>
-      </c>
-      <c r="P15" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -2631,7 +3308,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2640,45 +3317,39 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="O16" t="s">
-        <v>79</v>
-      </c>
-      <c r="P16" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="n">
-        <v>5</v>
-      </c>
+      <c r="R16" t="s"/>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>5</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17">
@@ -2721,16 +3392,16 @@
         <v>147</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
-      <c r="R17" t="n">
-        <v>5</v>
-      </c>
-      <c r="S17" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
         <v>5</v>
@@ -2778,25 +3449,25 @@
         <v>152</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
         <v>153</v>
       </c>
       <c r="O18" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
-        <v>5</v>
-      </c>
-      <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2844,30 +3515,24 @@
         <v>5</v>
       </c>
       <c r="N19" t="s">
+        <v>147</v>
+      </c>
+      <c r="O19" t="s">
         <v>159</v>
       </c>
-      <c r="O19" t="s">
-        <v>59</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
+      <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
       <c r="R19" t="s"/>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
@@ -2883,54 +3548,48 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
         <v>161</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>162</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>163</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>164</v>
       </c>
-      <c r="L20" t="s">
-        <v>165</v>
-      </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
-      </c>
-      <c r="P20" t="n">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>1</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
@@ -2946,48 +3605,54 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
         <v>166</v>
       </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>167</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>168</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>169</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
         <v>170</v>
       </c>
-      <c r="M21" t="n">
-        <v>4</v>
-      </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>159</v>
       </c>
-      <c r="O21" t="s">
-        <v>79</v>
-      </c>
-      <c r="P21" t="s"/>
+      <c r="P21" t="n">
+        <v>5</v>
+      </c>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="S21" t="n">
+        <v>5</v>
+      </c>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
@@ -3003,7 +3668,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3012,39 +3677,45 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="J22" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K22" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="O22" t="s">
-        <v>79</v>
-      </c>
-      <c r="P22" t="s"/>
+        <v>66</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="23">
@@ -3060,7 +3731,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3069,45 +3740,39 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="O23" t="s">
-        <v>79</v>
-      </c>
-      <c r="P23" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>5</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
@@ -3150,20 +3815,14 @@
         <v>189</v>
       </c>
       <c r="O24" t="s">
-        <v>53</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
@@ -3207,37 +3866,31 @@
         <v>195</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
-      <c r="P25" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>5</v>
-      </c>
-      <c r="R25" t="n">
         <v>4</v>
       </c>
+      <c r="N25" t="s">
+        <v>189</v>
+      </c>
+      <c r="O25" t="s">
+        <v>159</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
         <v>196</v>
-      </c>
-      <c r="X25" t="s">
-        <v>197</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="26">
@@ -3253,62 +3906,52 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>198</v>
+      </c>
+      <c r="J26" t="s">
         <v>199</v>
       </c>
-      <c r="G26" t="s">
-        <v>46</v>
-      </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
-      <c r="I26" t="s">
+      <c r="K26" t="s">
         <v>200</v>
       </c>
-      <c r="J26" t="s">
+      <c r="L26" t="s">
         <v>201</v>
       </c>
-      <c r="K26" t="s">
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
         <v>202</v>
       </c>
-      <c r="L26" t="s">
-        <v>203</v>
-      </c>
-      <c r="M26" t="n">
-        <v>3</v>
-      </c>
-      <c r="N26" t="s">
-        <v>204</v>
-      </c>
       <c r="O26" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>4</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>205</v>
-      </c>
-      <c r="X26" t="s">
-        <v>206</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="27">
@@ -3324,52 +3967,54 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>205</v>
+      </c>
+      <c r="J27" t="s">
+        <v>206</v>
+      </c>
+      <c r="K27" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" t="s">
         <v>208</v>
       </c>
-      <c r="G27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
         <v>209</v>
       </c>
-      <c r="J27" t="s">
-        <v>210</v>
-      </c>
-      <c r="K27" t="s">
-        <v>211</v>
-      </c>
-      <c r="L27" t="s">
-        <v>212</v>
-      </c>
-      <c r="M27" t="n">
-        <v>4</v>
-      </c>
-      <c r="N27" t="s">
-        <v>204</v>
-      </c>
       <c r="O27" t="s">
-        <v>79</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>59</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
-      <c r="W27" t="s">
-        <v>213</v>
-      </c>
-      <c r="X27" t="s">
-        <v>214</v>
-      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
@@ -3385,7 +4030,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3394,53 +4039,39 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="J28" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="K28" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="L28" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>5</v>
-      </c>
-      <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>5</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>213</v>
-      </c>
-      <c r="X28" t="s">
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
         <v>214</v>
-      </c>
-      <c r="Y28" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="29">
@@ -3456,7 +4087,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3465,53 +4096,45 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="J29" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="K29" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="O29" t="s">
-        <v>79</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="P29" t="s"/>
       <c r="Q29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R29" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
       <c r="S29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>229</v>
-      </c>
-      <c r="X29" t="s">
-        <v>230</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="30">
@@ -3527,7 +4150,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3536,38 +4159,34 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="J30" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="K30" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="L30" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="O30" t="s">
-        <v>79</v>
-      </c>
-      <c r="P30" t="n">
-        <v>1</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P30" t="s"/>
       <c r="Q30" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R30" t="n">
-        <v>1</v>
-      </c>
-      <c r="S30" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
         <v>5</v>
@@ -3575,14 +4194,10 @@
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>238</v>
-      </c>
-      <c r="X30" t="s">
-        <v>239</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31">
@@ -3598,7 +4213,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3607,41 +4222,37 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="J31" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="K31" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
       <c r="O31" t="s">
-        <v>79</v>
-      </c>
-      <c r="P31" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P31" t="s"/>
       <c r="Q31" t="n">
         <v>5</v>
       </c>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="n">
         <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3649,7 +4260,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32">
@@ -3665,7 +4276,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3674,49 +4285,45 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="J32" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="K32" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="L32" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="M32" t="n">
-        <v>3</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>240</v>
+      </c>
+      <c r="O32" t="s">
+        <v>66</v>
+      </c>
       <c r="P32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>2</v>
-      </c>
-      <c r="R32" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
       <c r="S32" t="n">
         <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>252</v>
-      </c>
-      <c r="X32" t="s">
-        <v>253</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33">
@@ -3732,7 +4339,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3741,37 +4348,33 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="J33" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="K33" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="O33" t="s">
-        <v>79</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>3</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
       <c r="R33" t="n">
         <v>4</v>
       </c>
       <c r="S33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
@@ -3783,7 +4386,7 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>261</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34">
@@ -3799,7 +4402,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3808,49 +4411,43 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>263</v>
+        <v>249</v>
       </c>
       <c r="J34" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="K34" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="L34" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
-      </c>
-      <c r="P34" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>5</v>
-      </c>
-      <c r="R34" t="n">
-        <v>5</v>
-      </c>
-      <c r="S34" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
-      <c r="U34" t="n">
-        <v>5</v>
-      </c>
+      <c r="U34" t="s"/>
       <c r="V34" t="n">
         <v>0</v>
       </c>
-      <c r="W34" t="s"/>
-      <c r="X34" t="s"/>
+      <c r="W34" t="s">
+        <v>253</v>
+      </c>
+      <c r="X34" t="s">
+        <v>254</v>
+      </c>
       <c r="Y34" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
     </row>
     <row r="35">
@@ -3866,7 +4463,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -3875,41 +4472,37 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="J35" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="K35" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="L35" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="M35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N35" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>4</v>
-      </c>
-      <c r="S35" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3917,7 +4510,7 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
     </row>
     <row r="36">
@@ -3933,7 +4526,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -3942,49 +4535,39 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="J36" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="K36" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="L36" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>279</v>
+        <v>240</v>
       </c>
       <c r="O36" t="s">
-        <v>79</v>
-      </c>
-      <c r="P36" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>5</v>
-      </c>
-      <c r="R36" t="n">
-        <v>5</v>
-      </c>
-      <c r="S36" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="n">
-        <v>5</v>
-      </c>
+      <c r="U36" t="s"/>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37">
@@ -4000,7 +4583,7 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="G37" t="s">
         <v>46</v>
@@ -4009,49 +4592,39 @@
         <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="J37" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="K37" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="L37" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="O37" t="s">
-        <v>79</v>
-      </c>
-      <c r="P37" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>5</v>
-      </c>
-      <c r="R37" t="n">
-        <v>5</v>
-      </c>
-      <c r="S37" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
-      <c r="U37" t="n">
-        <v>5</v>
-      </c>
+      <c r="U37" t="s"/>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
     </row>
     <row r="38">
@@ -4067,7 +4640,7 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="G38" t="s">
         <v>46</v>
@@ -4076,49 +4649,39 @@
         <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="J38" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="K38" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="L38" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P38" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>5</v>
-      </c>
-      <c r="R38" t="n">
-        <v>5</v>
-      </c>
-      <c r="S38" t="n">
-        <v>5</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>5</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39">
@@ -4134,7 +4697,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4143,38 +4706,32 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="J39" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="K39" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="L39" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>299</v>
+        <v>277</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
         <v>5</v>
       </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
         <v>5</v>
@@ -4185,7 +4742,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
@@ -4201,7 +4758,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4210,34 +4767,34 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="J40" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="K40" t="s">
-        <v>303</v>
+        <v>287</v>
       </c>
       <c r="L40" t="s">
-        <v>304</v>
+        <v>288</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
-      <c r="N40" t="s"/>
-      <c r="O40" t="s"/>
+      <c r="N40" t="s">
+        <v>289</v>
+      </c>
+      <c r="O40" t="s">
+        <v>59</v>
+      </c>
       <c r="P40" t="n">
         <v>5</v>
       </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q40" t="s"/>
       <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
         <v>5</v>
@@ -4248,7 +4805,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41">
@@ -4264,7 +4821,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4273,53 +4830,45 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
       <c r="J41" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="K41" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
       <c r="L41" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
       <c r="O41" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2</v>
-      </c>
-      <c r="R41" t="n">
-        <v>1</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s">
-        <v>311</v>
-      </c>
-      <c r="X41" t="s">
-        <v>312</v>
-      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
     </row>
     <row r="42">
@@ -4335,7 +4884,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4344,28 +4893,24 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="J42" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="K42" t="s">
-        <v>317</v>
+        <v>301</v>
       </c>
       <c r="L42" t="s">
-        <v>318</v>
+        <v>302</v>
       </c>
       <c r="M42" t="n">
-        <v>5</v>
-      </c>
-      <c r="N42" t="s">
-        <v>319</v>
-      </c>
-      <c r="O42" t="s">
-        <v>79</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q42" t="n">
         <v>5</v>
@@ -4374,19 +4919,23 @@
         <v>4</v>
       </c>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s"/>
-      <c r="X42" t="s"/>
+      <c r="W42" t="s">
+        <v>303</v>
+      </c>
+      <c r="X42" t="s">
+        <v>304</v>
+      </c>
       <c r="Y42" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43">
@@ -4402,7 +4951,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4411,49 +4960,53 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="J43" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="K43" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="L43" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="M43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>325</v>
+        <v>296</v>
       </c>
       <c r="O43" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S43" t="n">
         <v>5</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
-      <c r="W43" t="s"/>
-      <c r="X43" t="s"/>
+      <c r="W43" t="s">
+        <v>311</v>
+      </c>
+      <c r="X43" t="s">
+        <v>312</v>
+      </c>
       <c r="Y43" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44">
@@ -4469,7 +5022,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4478,49 +5031,53 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="J44" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="K44" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="L44" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
         <v>319</v>
       </c>
       <c r="O44" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s"/>
-      <c r="X44" t="s"/>
+      <c r="W44" t="s">
+        <v>311</v>
+      </c>
+      <c r="X44" t="s">
+        <v>312</v>
+      </c>
       <c r="Y44" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45">
@@ -4536,7 +5093,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4545,49 +5102,53 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="J45" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="K45" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="L45" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="M45" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>337</v>
+        <v>319</v>
       </c>
       <c r="O45" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R45" t="n">
         <v>5</v>
       </c>
       <c r="S45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T45" t="s"/>
       <c r="U45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s"/>
-      <c r="X45" t="s"/>
+      <c r="W45" t="s">
+        <v>326</v>
+      </c>
+      <c r="X45" t="s">
+        <v>327</v>
+      </c>
       <c r="Y45" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="46">
@@ -4603,7 +5164,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4612,53 +5173,43 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="J46" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="K46" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="L46" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>344</v>
+        <v>319</v>
       </c>
       <c r="O46" t="s">
-        <v>79</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>3</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="X46" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="Y46" t="s">
-        <v>347</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47">
@@ -4674,7 +5225,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4683,28 +5234,28 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="J47" t="s">
-        <v>350</v>
+        <v>337</v>
       </c>
       <c r="K47" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="L47" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="O47" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="n">
         <v>5</v>
@@ -4723,13 +5274,13 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
       <c r="X47" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="Y47" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48">
@@ -4745,7 +5296,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4754,22 +5305,22 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="J48" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="K48" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="L48" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="O48" t="s">
         <v>59</v>
@@ -4777,8 +5328,12 @@
       <c r="P48" t="n">
         <v>5</v>
       </c>
-      <c r="Q48" t="s"/>
-      <c r="R48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
       <c r="S48" t="n">
         <v>5</v>
       </c>
@@ -4789,10 +5344,14 @@
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s"/>
-      <c r="X48" t="s"/>
+      <c r="W48" t="s">
+        <v>311</v>
+      </c>
+      <c r="X48" t="s">
+        <v>312</v>
+      </c>
       <c r="Y48" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
     </row>
     <row r="49">
@@ -4808,7 +5367,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4817,45 +5376,53 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="J49" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="K49" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L49" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="O49" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="s"/>
-      <c r="R49" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
       <c r="S49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
-      <c r="W49" t="s"/>
-      <c r="X49" t="s"/>
+      <c r="W49" t="s">
+        <v>311</v>
+      </c>
+      <c r="X49" t="s">
+        <v>312</v>
+      </c>
       <c r="Y49" t="s">
-        <v>368</v>
+        <v>355</v>
       </c>
     </row>
     <row r="50">
@@ -4871,7 +5438,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -4880,49 +5447,53 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="J50" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="K50" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="L50" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N50" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="O50" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="s"/>
-      <c r="R50" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
       <c r="S50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="X50" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="Y50" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51">
@@ -4938,7 +5509,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -4947,33 +5518,37 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="J51" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="K51" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="L51" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N51" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="O51" t="s">
-        <v>114</v>
+        <v>59</v>
       </c>
       <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>2</v>
+      </c>
+      <c r="R51" t="n">
+        <v>1</v>
+      </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
@@ -4982,10 +5557,14 @@
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s"/>
-      <c r="X51" t="s"/>
+      <c r="W51" t="s">
+        <v>370</v>
+      </c>
+      <c r="X51" t="s">
+        <v>371</v>
+      </c>
       <c r="Y51" t="s">
-        <v>383</v>
+        <v>372</v>
       </c>
     </row>
     <row r="52">
@@ -5001,7 +5580,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>384</v>
+        <v>373</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5010,24 +5589,28 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="J52" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="K52" t="s">
-        <v>387</v>
+        <v>376</v>
       </c>
       <c r="L52" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
-      <c r="N52" t="s"/>
-      <c r="O52" t="s"/>
+      <c r="N52" t="s">
+        <v>378</v>
+      </c>
+      <c r="O52" t="s">
+        <v>59</v>
+      </c>
       <c r="P52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q52" t="n">
         <v>5</v>
@@ -5048,7 +5631,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
     </row>
     <row r="53">
@@ -5064,7 +5647,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5073,25 +5656,25 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="J53" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="K53" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="L53" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="O53" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5100,7 +5683,7 @@
         <v>5</v>
       </c>
       <c r="R53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S53" t="n">
         <v>5</v>
@@ -5115,7 +5698,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>395</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54">
@@ -5131,7 +5714,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>396</v>
+        <v>384</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5140,49 +5723,53 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="J54" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="K54" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="L54" t="s">
-        <v>400</v>
+        <v>388</v>
       </c>
       <c r="M54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="O54" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
-      <c r="W54" t="s"/>
-      <c r="X54" t="s"/>
+      <c r="W54" t="s">
+        <v>390</v>
+      </c>
+      <c r="X54" t="s">
+        <v>391</v>
+      </c>
       <c r="Y54" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
     </row>
     <row r="55">
@@ -5198,7 +5785,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5207,49 +5794,2587 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="J55" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="K55" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="L55" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
-      </c>
-      <c r="N55" t="s">
-        <v>394</v>
-      </c>
-      <c r="O55" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
       <c r="P55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
-      <c r="W55" t="s"/>
-      <c r="X55" t="s"/>
+      <c r="W55" t="s">
+        <v>398</v>
+      </c>
+      <c r="X55" t="s">
+        <v>399</v>
+      </c>
       <c r="Y55" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>401</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>402</v>
+      </c>
+      <c r="J56" t="s">
+        <v>403</v>
+      </c>
+      <c r="K56" t="s">
+        <v>404</v>
+      </c>
+      <c r="L56" t="s">
+        <v>405</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>406</v>
+      </c>
+      <c r="O56" t="s">
+        <v>59</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>3</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
         <v>407</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>408</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>409</v>
+      </c>
+      <c r="J57" t="s">
+        <v>410</v>
+      </c>
+      <c r="K57" t="s">
+        <v>411</v>
+      </c>
+      <c r="L57" t="s">
+        <v>412</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>354</v>
+      </c>
+      <c r="O57" t="s">
+        <v>74</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>413</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>414</v>
+      </c>
+      <c r="J58" t="s">
+        <v>415</v>
+      </c>
+      <c r="K58" t="s">
+        <v>416</v>
+      </c>
+      <c r="L58" t="s">
+        <v>417</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>418</v>
+      </c>
+      <c r="O58" t="s">
+        <v>59</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>419</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>420</v>
+      </c>
+      <c r="J59" t="s">
+        <v>415</v>
+      </c>
+      <c r="K59" t="s">
+        <v>421</v>
+      </c>
+      <c r="L59" t="s">
+        <v>422</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>418</v>
+      </c>
+      <c r="O59" t="s">
+        <v>59</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>3</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>423</v>
+      </c>
+      <c r="X59" t="s">
+        <v>424</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>426</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>427</v>
+      </c>
+      <c r="J60" t="s">
+        <v>428</v>
+      </c>
+      <c r="K60" t="s">
+        <v>429</v>
+      </c>
+      <c r="L60" t="s">
+        <v>430</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>418</v>
+      </c>
+      <c r="O60" t="s">
+        <v>74</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>431</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>432</v>
+      </c>
+      <c r="J61" t="s">
+        <v>433</v>
+      </c>
+      <c r="K61" t="s">
+        <v>434</v>
+      </c>
+      <c r="L61" t="s">
+        <v>435</v>
+      </c>
+      <c r="M61" t="n">
+        <v>5</v>
+      </c>
+      <c r="N61" t="s">
+        <v>436</v>
+      </c>
+      <c r="O61" t="s">
+        <v>59</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>438</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>439</v>
+      </c>
+      <c r="J62" t="s">
+        <v>440</v>
+      </c>
+      <c r="K62" t="s">
+        <v>441</v>
+      </c>
+      <c r="L62" t="s">
+        <v>442</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>443</v>
+      </c>
+      <c r="O62" t="s">
+        <v>59</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>4</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>445</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>446</v>
+      </c>
+      <c r="J63" t="s">
+        <v>447</v>
+      </c>
+      <c r="K63" t="s">
+        <v>448</v>
+      </c>
+      <c r="L63" t="s">
+        <v>449</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s">
+        <v>450</v>
+      </c>
+      <c r="O63" t="s">
+        <v>66</v>
+      </c>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>452</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>453</v>
+      </c>
+      <c r="J64" t="s">
+        <v>454</v>
+      </c>
+      <c r="K64" t="s">
+        <v>455</v>
+      </c>
+      <c r="L64" t="s">
+        <v>456</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>457</v>
+      </c>
+      <c r="O64" t="s">
+        <v>159</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>458</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>459</v>
+      </c>
+      <c r="J65" t="s">
+        <v>460</v>
+      </c>
+      <c r="K65" t="s">
+        <v>461</v>
+      </c>
+      <c r="L65" t="s">
+        <v>462</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>463</v>
+      </c>
+      <c r="O65" t="s">
+        <v>74</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>464</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>465</v>
+      </c>
+      <c r="J66" t="s">
+        <v>466</v>
+      </c>
+      <c r="K66" t="s">
+        <v>467</v>
+      </c>
+      <c r="L66" t="s">
+        <v>468</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>457</v>
+      </c>
+      <c r="O66" t="s">
+        <v>74</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>469</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>470</v>
+      </c>
+      <c r="J67" t="s">
+        <v>471</v>
+      </c>
+      <c r="K67" t="s">
+        <v>472</v>
+      </c>
+      <c r="L67" t="s">
+        <v>473</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s"/>
+      <c r="O67" t="s"/>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>474</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>475</v>
+      </c>
+      <c r="J68" t="s">
+        <v>476</v>
+      </c>
+      <c r="K68" t="s">
+        <v>477</v>
+      </c>
+      <c r="L68" t="s">
+        <v>478</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>443</v>
+      </c>
+      <c r="O68" t="s">
+        <v>159</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>479</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>480</v>
+      </c>
+      <c r="J69" t="s">
+        <v>481</v>
+      </c>
+      <c r="K69" t="s">
+        <v>482</v>
+      </c>
+      <c r="L69" t="s">
+        <v>483</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s">
+        <v>484</v>
+      </c>
+      <c r="O69" t="s">
+        <v>59</v>
+      </c>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>485</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>486</v>
+      </c>
+      <c r="J70" t="s">
+        <v>487</v>
+      </c>
+      <c r="K70" t="s">
+        <v>488</v>
+      </c>
+      <c r="L70" t="s">
+        <v>489</v>
+      </c>
+      <c r="M70" t="n">
+        <v>2</v>
+      </c>
+      <c r="N70" t="s">
+        <v>484</v>
+      </c>
+      <c r="O70" t="s">
+        <v>59</v>
+      </c>
+      <c r="P70" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>2</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>490</v>
+      </c>
+      <c r="X70" t="s">
+        <v>491</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>493</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>494</v>
+      </c>
+      <c r="J71" t="s">
+        <v>495</v>
+      </c>
+      <c r="K71" t="s">
+        <v>496</v>
+      </c>
+      <c r="L71" t="s">
+        <v>497</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>498</v>
+      </c>
+      <c r="O71" t="s">
+        <v>59</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>499</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>500</v>
+      </c>
+      <c r="J72" t="s">
+        <v>501</v>
+      </c>
+      <c r="K72" t="s">
+        <v>502</v>
+      </c>
+      <c r="L72" t="s">
+        <v>503</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>504</v>
+      </c>
+      <c r="O72" t="s">
+        <v>59</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>4</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>505</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>506</v>
+      </c>
+      <c r="J73" t="s">
+        <v>507</v>
+      </c>
+      <c r="K73" t="s">
+        <v>508</v>
+      </c>
+      <c r="L73" t="s">
+        <v>509</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s"/>
+      <c r="O73" t="s"/>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>5</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>510</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>511</v>
+      </c>
+      <c r="J74" t="s">
+        <v>512</v>
+      </c>
+      <c r="K74" t="s">
+        <v>513</v>
+      </c>
+      <c r="L74" t="s">
+        <v>514</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s"/>
+      <c r="O74" t="s"/>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>4</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>515</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>516</v>
+      </c>
+      <c r="J75" t="s">
+        <v>517</v>
+      </c>
+      <c r="K75" t="s">
+        <v>518</v>
+      </c>
+      <c r="L75" t="s">
+        <v>519</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>498</v>
+      </c>
+      <c r="O75" t="s">
+        <v>74</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>521</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>522</v>
+      </c>
+      <c r="J76" t="s">
+        <v>523</v>
+      </c>
+      <c r="K76" t="s">
+        <v>524</v>
+      </c>
+      <c r="L76" t="s">
+        <v>525</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>526</v>
+      </c>
+      <c r="O76" t="s">
+        <v>66</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>528</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>529</v>
+      </c>
+      <c r="J77" t="s">
+        <v>530</v>
+      </c>
+      <c r="K77" t="s">
+        <v>531</v>
+      </c>
+      <c r="L77" t="s">
+        <v>532</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>533</v>
+      </c>
+      <c r="O77" t="s">
+        <v>59</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>534</v>
+      </c>
+      <c r="X77" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>537</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>538</v>
+      </c>
+      <c r="J78" t="s">
+        <v>539</v>
+      </c>
+      <c r="K78" t="s">
+        <v>540</v>
+      </c>
+      <c r="L78" t="s">
+        <v>541</v>
+      </c>
+      <c r="M78" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" t="s">
+        <v>526</v>
+      </c>
+      <c r="O78" t="s">
+        <v>59</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>3</v>
+      </c>
+      <c r="S78" t="n">
+        <v>1</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>3</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>534</v>
+      </c>
+      <c r="X78" t="s">
+        <v>535</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>543</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>544</v>
+      </c>
+      <c r="J79" t="s">
+        <v>545</v>
+      </c>
+      <c r="K79" t="s">
+        <v>546</v>
+      </c>
+      <c r="L79" t="s">
+        <v>547</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>548</v>
+      </c>
+      <c r="O79" t="s">
+        <v>66</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>549</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>550</v>
+      </c>
+      <c r="J80" t="s">
+        <v>551</v>
+      </c>
+      <c r="K80" t="s">
+        <v>552</v>
+      </c>
+      <c r="L80" t="s">
+        <v>553</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>548</v>
+      </c>
+      <c r="O80" t="s">
+        <v>66</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>554</v>
+      </c>
+      <c r="X80" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>557</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>558</v>
+      </c>
+      <c r="J81" t="s">
+        <v>559</v>
+      </c>
+      <c r="K81" t="s">
+        <v>560</v>
+      </c>
+      <c r="L81" t="s">
+        <v>561</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>562</v>
+      </c>
+      <c r="O81" t="s">
+        <v>66</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>564</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>565</v>
+      </c>
+      <c r="J82" t="s">
+        <v>566</v>
+      </c>
+      <c r="K82" t="s">
+        <v>567</v>
+      </c>
+      <c r="L82" t="s">
+        <v>568</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>569</v>
+      </c>
+      <c r="O82" t="s">
+        <v>74</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>570</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>571</v>
+      </c>
+      <c r="J83" t="s">
+        <v>572</v>
+      </c>
+      <c r="K83" t="s">
+        <v>573</v>
+      </c>
+      <c r="L83" t="s">
+        <v>574</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>569</v>
+      </c>
+      <c r="O83" t="s">
+        <v>123</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>575</v>
+      </c>
+      <c r="X83" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>578</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>579</v>
+      </c>
+      <c r="J84" t="s">
+        <v>580</v>
+      </c>
+      <c r="K84" t="s">
+        <v>581</v>
+      </c>
+      <c r="L84" t="s">
+        <v>582</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>562</v>
+      </c>
+      <c r="O84" t="s">
+        <v>66</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="s"/>
+      <c r="R84" t="s"/>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>575</v>
+      </c>
+      <c r="X84" t="s">
+        <v>576</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>584</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>585</v>
+      </c>
+      <c r="J85" t="s">
+        <v>586</v>
+      </c>
+      <c r="K85" t="s">
+        <v>587</v>
+      </c>
+      <c r="L85" t="s">
+        <v>588</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>589</v>
+      </c>
+      <c r="O85" t="s">
+        <v>59</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="s"/>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>590</v>
+      </c>
+      <c r="X85" t="s">
+        <v>591</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>593</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>594</v>
+      </c>
+      <c r="J86" t="s">
+        <v>595</v>
+      </c>
+      <c r="K86" t="s">
+        <v>596</v>
+      </c>
+      <c r="L86" t="s">
+        <v>597</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>589</v>
+      </c>
+      <c r="O86" t="s">
+        <v>159</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>598</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>599</v>
+      </c>
+      <c r="J87" t="s">
+        <v>600</v>
+      </c>
+      <c r="K87" t="s">
+        <v>601</v>
+      </c>
+      <c r="L87" t="s">
+        <v>602</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s"/>
+      <c r="O87" t="s"/>
+      <c r="P87" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>603</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>604</v>
+      </c>
+      <c r="J88" t="s">
+        <v>605</v>
+      </c>
+      <c r="K88" t="s">
+        <v>606</v>
+      </c>
+      <c r="L88" t="s">
+        <v>607</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>533</v>
+      </c>
+      <c r="O88" t="s">
+        <v>59</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>608</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>609</v>
+      </c>
+      <c r="J89" t="s">
+        <v>610</v>
+      </c>
+      <c r="K89" t="s">
+        <v>611</v>
+      </c>
+      <c r="L89" t="s">
+        <v>612</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>613</v>
+      </c>
+      <c r="O89" t="s">
+        <v>66</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>614</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>615</v>
+      </c>
+      <c r="J90" t="s">
+        <v>616</v>
+      </c>
+      <c r="K90" t="s">
+        <v>617</v>
+      </c>
+      <c r="L90" t="s">
+        <v>618</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>619</v>
+      </c>
+      <c r="O90" t="s">
+        <v>74</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>621</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>622</v>
+      </c>
+      <c r="J91" t="s">
+        <v>623</v>
+      </c>
+      <c r="K91" t="s">
+        <v>624</v>
+      </c>
+      <c r="L91" t="s">
+        <v>625</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>619</v>
+      </c>
+      <c r="O91" t="s">
+        <v>59</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>4</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>627</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>628</v>
+      </c>
+      <c r="J92" t="s">
+        <v>629</v>
+      </c>
+      <c r="K92" t="s">
+        <v>630</v>
+      </c>
+      <c r="L92" t="s">
+        <v>631</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>619</v>
+      </c>
+      <c r="O92" t="s">
+        <v>74</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="n">
+        <v>5</v>
+      </c>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>59924</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>633</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>634</v>
+      </c>
+      <c r="J93" t="s">
+        <v>635</v>
+      </c>
+      <c r="K93" t="s">
+        <v>636</v>
+      </c>
+      <c r="L93" t="s">
+        <v>637</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>638</v>
+      </c>
+      <c r="O93" t="s">
+        <v>66</v>
+      </c>
+      <c r="P93" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>637</v>
       </c>
     </row>
   </sheetData>
